--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -5962,12 +5962,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用すると、サブネット間のトラフィックと、プラットフォーム全体の東西のトラフィック (ランディング ゾーン間のトラフィック) を保護できます。</t>
+          <t>ネットワーク内の着信接続用に開いているファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを許可することを検討してください。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5984,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-バブ-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG を使用すると、サブネット間のトラフィックと、プラットフォーム全体の東西のトラフィック (ランディング ゾーン間のトラフィック) を保護できます。</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,7 +6034,7 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
@@ -6046,7 +6046,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6084,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6096,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する洞察を得ます。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6139,14 +6139,14 @@
       </c>
       <c r="I110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する洞察を得ます。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6189,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN トポロジの場合、ランディング ゾーンを流れるトラフィックのフィルター処理とログ機能が組織で必要な場合は、Azure Firewall 経由でランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6239,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6262,12 +6262,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、フローにおけるこの暗号化を示しています。</t>
+          <t>仮想 WAN トポロジの場合、ランディング ゾーンを流れるトラフィックのフィルター処理とログ機能が組織で必要な場合は、Azure Firewall 経由でランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6287,12 +6287,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I113" s="16" t="n"/>
+      <c r="I113" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6313,7 +6317,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間のトラフィックを暗号化する必要がある場合は、グローバル VNet ピアリングを使用して、リージョン間で仮想ネットワークに接続します。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、フローにおけるこの暗号化を示しています。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6330,19 +6334,15 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I114" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I114" s="16" t="n"/>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>MACsec がオプションではない (ExpressRoute Direct を使用しないなど) 仮想 WAN シナリオでは、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>Azure リージョン間のトラフィックを暗号化する必要がある場合は、グローバル VNet ピアリングを使用して、リージョン間で仮想ネットワークに接続します。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,7 +6380,7 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -6392,7 +6392,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6408,12 +6408,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>ネットワークウォッチャーパケットを使用して、キャプチャウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>MACsec がオプションではない (ExpressRoute Direct を使用しないなど) 仮想 WAN シナリオでは、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,19 +6430,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6463,7 +6463,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログの最新バージョンが必要な詳細レベルを提供するかどうかを評価します。</t>
+          <t>ネットワークウォッチャーパケットを使用して、キャプチャウィンドウが限られているにもかかわらずキャプチャします。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,14 +6480,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6508,7 +6513,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>詳細なパケット検査を必要とするシナリオにパートナー ソリューションを使用します。</t>
+          <t>NSG フロー ログの最新バージョンが必要な詳細レベルを提供するかどうかを評価します。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6525,7 +6530,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I118" s="16" t="n"/>
@@ -6533,7 +6538,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6554,7 +6559,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは受け入れられるかもしれませんが、複雑さと発生する可能性のあるサポート性の問題のため、大規模では推奨しません。</t>
+          <t>詳細なパケット検査を必要とするシナリオにパートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6571,14 +6576,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6589,17 +6594,17 @@
     <row r="120" ht="16.5" customHeight="1" s="13">
       <c r="A120" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
+          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは受け入れられるかもしれませんが、複雑さと発生する可能性のあるサポート性の問題のため、大規模では推奨しません。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6616,19 +6621,15 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I120" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I120" s="16" t="n"/>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6649,7 +6650,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>ランディングゾーンは文書化されていますか?</t>
+          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6664,13 +6665,21 @@
         </is>
       </c>
       <c r="G121" s="22" t="n"/>
-      <c r="H121" s="16" t="n"/>
-      <c r="I121" s="16" t="n"/>
+      <c r="H121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6691,7 +6700,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>ログの保持要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージを 1 回限りの書き込みポリシー、多読ポリシーと共に使用して、ユーザーが指定した間隔の間、データを消去不可および変更不可にします。</t>
+          <t>ランディングゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6706,21 +6715,13 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I122" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H122" s="16" t="n"/>
+      <c r="I122" s="16" t="n"/>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6741,7 +6742,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy では、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を確保できます。</t>
+          <t>ログの保持要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージを 1 回限りの書き込みポリシー、多読ポリシーと共に使用して、ユーザーが指定した間隔の間、データを消去不可および変更不可にします。</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6770,7 +6771,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6791,7 +6792,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーションチームのワークロードがわずかな労力で機能機能をすぐに使用できるようになります。</t>
+          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy では、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を確保できます。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6808,19 +6809,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6841,7 +6842,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Azure オートメーションの更新プログラム管理を、Windows VM と Linux VM の両方の長期的な修正プログラムの適用メカニズムとして使用します。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーションチームのワークロードがわずかな労力で機能機能をすぐに使用できるようになります。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6858,19 +6859,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6891,7 +6892,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>ネットワークウォッチャーを使用してトラフィックフローをプロアクティブに監視する</t>
+          <t>Azure オートメーションの更新プログラム管理を、Windows VM と Linux VM の両方の長期的な修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6908,19 +6909,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6941,7 +6942,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>ネットワークウォッチャーを使用してトラフィックフローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6958,19 +6959,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6991,7 +6992,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、適切なガードレールが確実に配置され、リソースをデプロイおよび構成できるユーザーと、そのユーザーがデプロイおよび構成できるリソースが適用されます。</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7008,14 +7009,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7036,7 +7042,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、適切なガードレールが確実に配置され、リソースをデプロイおよび構成できるユーザーと、そのユーザーがデプロイおよび構成できるリソースが適用されます。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7053,14 +7059,14 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7081,7 +7087,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure サービス正常性プラットフォームの一部として含めて、アラートまたは問題を処理できるようにします。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7098,14 +7104,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7126,7 +7132,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure に保持されるという原則を採用してください。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>アラートとアクション グループを Azure サービス正常性プラットフォームの一部として含めて、アラートまたは問題を処理できるようにします。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7143,14 +7149,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7171,7 +7177,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure に保持されるという原則を採用してください。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7188,14 +7194,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7216,7 +7222,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログを使用して、分析情報とレポートを作成します。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7233,14 +7239,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7261,7 +7267,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能ログ ストレージに使用します。</t>
+          <t>Azure Monitor ログを使用して、分析情報とレポートを作成します。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7278,14 +7284,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7306,7 +7312,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能ログ ストレージに使用します。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7323,14 +7329,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7351,7 +7357,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure サイト リカバリーを Azure から Azure への仮想マシンのディザスター リカバリー シナリオに採用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7368,14 +7374,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7396,7 +7402,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>ネイティブ PaaS サービスの災害時リカバリー機能を使用してテストしてください。</t>
+          <t>Azure サイト リカバリーを Azure から Azure への仮想マシンのディザスター リカバリー シナリオに採用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7413,14 +7419,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7441,7 +7447,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/お客様が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>ネイティブ PaaS サービスの災害時リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7458,14 +7464,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7476,23 +7482,23 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を保存する</t>
+          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/お客様が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
       <c r="E139" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -7503,14 +7509,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7531,13 +7537,13 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を保存する</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7548,14 +7554,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7576,7 +7582,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと削除ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7593,14 +7599,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7621,7 +7627,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>最小限の特権モデルに従って、キー、シークレット、および証明書を完全に削除する承認を、特殊なカスタム Azure Active Directory (Azure AD) ロールに制限します。</t>
+          <t>論理的な削除ポリシーと削除ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7645,7 +7651,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7666,7 +7672,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局による証明書の管理と更新のプロセスを自動化して、管理を容易にします。</t>
+          <t>最小限の特権モデルに従って、キー、シークレット、および証明書を完全に削除する承認を、特殊なカスタム Azure Active Directory (Azure AD) ロールに制限します。</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7690,7 +7696,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7711,7 +7717,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動プロセスを確立します。</t>
+          <t>パブリック認証局による証明書の管理と更新のプロセスを自動化して、管理を容易にします。</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7735,7 +7741,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7756,7 +7762,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>コンテナーのファイアウォールおよび仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>キーと証明書のローテーションの自動プロセスを確立します。</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7780,7 +7786,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7801,7 +7807,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、およびシークレットの使用状況を監査します。</t>
+          <t>コンテナーのファイアウォールおよび仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7818,14 +7824,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7846,7 +7852,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、およびシークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7863,14 +7869,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7891,7 +7897,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能については、既定で Microsoft が管理するキーを使用し、必要に応じて顧客管理キーを使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7908,14 +7914,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7936,7 +7942,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごとに、リージョンごとの環境ごとに使用します。</t>
+          <t>プリンシパル暗号化機能については、既定で Microsoft が管理するキーを使用し、必要に応じて顧客管理キーを使用します。</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7953,14 +7959,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7981,7 +7987,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているわけではありません。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切な領域ペアと障害復旧領域を選択します。</t>
+          <t>Azure Key Vault は、アプリケーションごとに、リージョンごとの環境ごとに使用します。</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8005,7 +8011,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8021,18 +8027,18 @@
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているわけではありません。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切な領域ペアと障害復旧領域を選択します。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8043,14 +8049,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8071,13 +8077,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、ポリシーの追加モードを使用して使用を強制します。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8088,14 +8094,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8116,7 +8122,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>必要な Azure タグを特定し、ポリシーの追加モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8133,14 +8139,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8161,7 +8167,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てることができるようにする</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8185,7 +8191,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8206,7 +8212,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、ポリシーの割り当てを最上位の適切なレベルで管理し、除外を最下位レベルで管理します。</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てることができるようにする</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8230,7 +8236,7 @@
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8251,13 +8257,13 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
+          <t>必要に応じて、ポリシーの割り当てを最上位の適切なレベルで管理し、除外を最下位レベルで管理します。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8275,7 +8281,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8296,13 +8302,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>可能な限り組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8320,7 +8326,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8341,7 +8347,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>可能な限り組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8365,7 +8371,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8386,7 +8392,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループ スコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8410,7 +8416,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8431,7 +8437,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>ルート管理グループ スコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8455,7 +8461,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8476,7 +8482,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM セキュリティ構成のドリフトを監視します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8500,7 +8506,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8516,12 +8522,12 @@
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>Azure ポリシーを使用して VM セキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8538,14 +8544,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8566,7 +8572,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure モニター ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、Azure Storage にエクスポートして、2 年以上の長期ストレージに使用してください。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8583,14 +8589,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8611,7 +8617,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure アクティビティ ログを Azure モニター ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、Azure Storage にエクスポートして、2 年以上の長期ストレージに使用してください。</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8628,14 +8634,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8656,7 +8662,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor Logs と Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用範囲を監視します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8680,7 +8686,7 @@
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8701,7 +8707,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を、一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>Azure Monitor Logs と Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用範囲を監視します。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8718,14 +8724,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8746,7 +8752,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのインシデント対応計画を決定してから、運用環境に許可します。</t>
+          <t>既定のリソース構成を、一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8763,14 +8769,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8791,7 +8797,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>Azure サービスのインシデント対応計画を決定してから、運用環境に許可します。</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8808,14 +8814,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8836,7 +8842,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8853,14 +8859,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8881,7 +8887,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求が満たされる方法を計画する</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8905,7 +8911,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8914,15 +8920,45 @@
       <c r="P170" s="26" t="n"/>
     </row>
     <row r="171" ht="16.5" customHeight="1" s="13">
-      <c r="A171" s="22" t="n"/>
-      <c r="B171" s="22" t="n"/>
-      <c r="C171" s="22" t="n"/>
+      <c r="A171" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B171" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C171" s="22" t="inlineStr">
+        <is>
+          <t>Azure サービスのサービス要求が満たされる方法を計画する</t>
+        </is>
+      </c>
       <c r="D171" s="22" t="n"/>
-      <c r="E171" s="22" t="n"/>
+      <c r="E171" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G171" s="22" t="n"/>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
-      <c r="L171" s="26" t="n"/>
+      <c r="L171" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M171" s="26" t="n"/>
       <c r="N171" s="26" t="n"/>
       <c r="O171" s="26" t="n"/>
@@ -10981,7 +11017,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F171" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -5884,12 +5884,12 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
@@ -2072,7 +2072,7 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2117,7 +2117,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -11016,7 +11016,13 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="3">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -7048,7 +7048,7 @@
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8499,7 +8499,7 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
@@ -8544,7 +8544,7 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -11016,7 +11016,19 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="7">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -1422,7 +1422,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーションチームのワークロードがわずかな労力で機能機能をすぐに使用できるようになります。</t>
+          <t>Azure Policy を使用して、ト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを使用してト構成監査機能を有効にすると、アプリケーションチームのワークロードがわずかな労力で機能機能をすぐに使用できるようになります。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -1795,17 +1795,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>アイデンティティとアクセス</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>理想的には、3 ~ 4 レベル以下の合理的にフラットな管理グループ階層を強制する</t>
+          <t>Azure AD ロールの割り当てにオンプレミスの同期アカウントを使用しないでください。</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1822,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用してリソース タグを強制または追加する</t>
+          <t>理想的には、3 ~ 4 レベル以下の合理的にフラットな管理グループ階層を強制する</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1872,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
+          <t>Azure ポリシーを使用してリソース タグを強制または追加する</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1922,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure 仮想 WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
+          <t>ルート管理グループの下にプラットフォーム管理グループを適用して、共通のプラットフォーム ポリシーと Azure ロールの割り当てをサポートする</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にサブスクリプションが配置されないことを強制する</t>
+          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure 仮想 WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2072,14 +2072,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2100,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>管理グループ階層設定で Azure RBAC 承認を有効にして、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
+          <t>ルート管理グループの下にサブスクリプションが配置されないことを強制する</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2117,14 +2122,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2145,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>ルートレベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続性、および機能のニーズに基づいてワークロードの種類を表します。</t>
+          <t>管理グループ階層設定で Azure RBAC 承認を有効にして、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2162,14 +2167,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2190,13 +2195,13 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、アクセスレビュー、予算レビュー、ポリシーコンプライアンス、必要に応じて修復するプロセスを適用します。</t>
+          <t>ルートレベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続性、および機能のニーズに基づいてワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2214,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2235,13 +2240,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Enusre は、すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一部としてサブスクリプション サポートの制限を認識していることです。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、アクセスレビュー、予算レビュー、ポリシーコンプライアンス、必要に応じて修復するプロセスを適用します。</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2252,14 +2257,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2280,13 +2285,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>リザーブドインスタンスの使用を強制して、必要なリージョンの予約容量に優先順位を付けます。これにより、ワークロードには、特定のリージョンでそのリソースに対する需要が高い場合でも、必要な容量が割り当てられます。</t>
+          <t>Enusre は、すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一部としてサブスクリプション サポートの制限を認識していることです。</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2297,19 +2302,15 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I32" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2330,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>ダッシュボード、ブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
+          <t>リザーブドインスタンスの使用を強制して、必要なリージョンの予約容量に優先順位を付けます。これにより、ワークロードには、特定のリージョンでそのリソースに対する需要が高い場合でも、必要な容量が割り当てられます。</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2347,19 +2348,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2380,13 +2381,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開領域内で利用可能であることを確認する</t>
+          <t>ダッシュボード、ブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2397,19 +2398,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2430,13 +2431,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>コスト管理のプロセスを強制する</t>
+          <t>必要なサービスと機能が、選択した展開領域内で利用可能であることを確認する</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2447,19 +2448,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2480,13 +2481,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>Windows Server 上の AD の場合は、Windows Server Active Directory ドメイン コントローラーをホストするために、プラットフォーム管理グループに専用の ID サブスクリプションを確立します。</t>
+          <t>コスト管理のプロセスを強制する</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2497,19 +2498,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>タグが請求とコスト管理に使用されていることを確認する</t>
+          <t>Windows Server 上の AD の場合は、Windows Server Active Directory ドメイン コントローラーをホストするために、プラットフォーム管理グループに専用の ID サブスクリプションを確立します。</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2547,19 +2548,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2570,17 +2571,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間がないようにします。</t>
+          <t>タグが請求とコスト管理に使用されていることを確認する</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2597,19 +2598,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>プライベートインターネットのアドレス割り当てから IP アドレスを使用するようにしてください (RFC 1918)。</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間がないようにします。</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2659,7 +2660,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2680,7 +2681,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにする、不必要に大きい仮想ネットワーク (/16 など) を作成しない</t>
+          <t>プライベートインターネットのアドレス割り当てから IP アドレスを使用するようにしてください (RFC 1918)。</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2709,7 +2710,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認します (特に組織によって所有されていない場合)。</t>
+          <t>IP アドレス空間が無駄にならないようにする、不必要に大きい仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2759,7 +2760,7 @@
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2780,7 +2781,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトに重複する IP アドレス範囲を使用しないでください。</t>
+          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認します (特に組織によって所有されていない場合)。</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2797,19 +2798,19 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>Azure での名前解決だけで済む環境では、Azure プライベート DNS を使用して解決します。名前解決用の委任ゾーン ('azure.contoso.com' など) を作成します。</t>
+          <t>運用サイトと DR サイトに重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2847,7 +2848,7 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
@@ -2859,7 +2860,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2880,7 +2881,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
+          <t>Azure での名前解決だけで済む環境では、Azure プライベート DNS を使用して解決します。名前解決用の委任ゾーン ('azure.contoso.com' など) を作成します。</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2909,7 +2910,7 @@
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2930,7 +2931,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードは、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,13 +2949,18 @@
       <c r="H45" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2975,7 +2981,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードは、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2992,19 +2998,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3020,12 +3022,12 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>IPプラン</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために仮想 WAN を検討し、仮想 WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3042,19 +3044,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3075,7 +3077,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して、Azure リージョン間で複数のランディング ゾーンを一緒に接続します。</t>
+          <t>Azure ネットワーク管理を簡素化するために仮想 WAN を検討し、仮想 WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3092,14 +3094,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3120,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して、Azure リージョン間で複数のランディング ゾーンを一緒に接続します。</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3144,7 +3151,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3165,7 +3172,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3185,16 +3192,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I50" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+      <c r="I50" s="16" t="n"/>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3215,7 +3218,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>サイト間 VPN 経由でブランチとリモート ロケーションを最も近い仮想 WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して仮想 WAN へのブランチ接続を有効にします。</t>
+          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="I51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3265,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
+          <t>サイト間 VPN 経由でブランチとリモート ロケーションを最も近い仮想 WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して仮想 WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3294,7 +3297,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>「Azure のトラフィックは Azure にとどまる」という原則に従って、Azure 内のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるようにします。</t>
+          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3333,13 +3336,18 @@
       <c r="H53" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3360,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理については、Azure ファイアウォールをデプロイします。</t>
+          <t>「Azure のトラフィックは Azure にとどまる」という原則に従って、Azure 内のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3380,16 +3388,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I54" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="I54" s="16" t="n"/>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3410,7 +3414,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>VWANにパートナーネットワーキングテクノロジとNVAを展開する場合は、パートナーベンダーのガイダンスを使用して構成を確認し、競合する構成がないことを確認します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理については、Azure ファイアウォールをデプロイします。</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3428,13 +3432,18 @@
       <c r="H55" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3455,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Azure Virtual WAN および Azure Firewall リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>VWANにパートナーネットワーキングテクノロジとNVAを展開する場合は、パートナーベンダーのガイダンスを使用して構成を確認し、競合する構成がないことを確認します。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3479,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3500,7 +3509,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>Azure Virtual WAN および Azure Firewall リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3517,14 +3526,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3545,7 +3554,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、仮想 WAN、状態、および主要なメトリックのエンドツーエンドのトポロジを監視します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3562,14 +3571,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3585,12 +3594,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>仮想WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください: 1 つの Azure リージョン内にデプロイされたネットワーク アーキテクチャ。ネットワーク アーキテクチャは複数の Azure リージョンにまたがり、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN 接続と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化されたNVAときめ細かいルーティングに依存しています。</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、仮想 WAN、状態、および主要なメトリックのエンドツーエンドのトポロジを監視します。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3607,19 +3616,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3640,7 +3644,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA を確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>次のシナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください: 1 つの Azure リージョン内にデプロイされたネットワーク アーキテクチャ。ネットワーク アーキテクチャは複数の Azure リージョンにまたがり、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN 接続と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化されたNVAときめ細かいルーティングに依存しています。</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3657,14 +3661,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3685,7 +3694,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>パートナー ネットワーク テクノロジまたは NVA を展開するときは、パートナー ベンダーのガイダンスに従ってください。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA を確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3702,14 +3711,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3730,7 +3739,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Azure Application Gateway などの受信 L7 サービスを、中央ハブ仮想ネットワーク内の共有サービスとしてデプロイしないでください。代わりに、アプリと共にそれぞれのランディング ゾーンに展開します。</t>
+          <t>パートナー ネットワーク テクノロジまたは NVA を展開するときは、パートナー ベンダーのガイダンスに従ってください。</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3747,14 +3756,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3775,7 +3784,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
+          <t>Azure Application Gateway などの受信 L7 サービスを、中央ハブ仮想ネットワーク内の共有サービスとしてデプロイしないでください。代わりに、アプリと共にそれぞれのランディング ゾーンに展開します。</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3792,7 +3801,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3800,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3821,7 +3830,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを使用するネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーンの仮想ネットワークに接続します。</t>
+          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3838,19 +3847,15 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="n"/>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,7 +3876,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを使用するネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーンの仮想ネットワークに接続します。</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3888,19 +3893,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,7 +3926,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンドツーエンドの状態を監視します。</t>
+          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3938,19 +3943,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,7 +3976,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続するときは、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンドツーエンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3988,15 +3993,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I67" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4012,12 +4021,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブアンドスポーク</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続するときは、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4034,19 +4043,15 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="n"/>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,7 +4072,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合は、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4084,7 +4089,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
@@ -4096,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合は、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4146,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,7 +4172,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>ゾーン冗長の ExpressRoute ゲートウェイを、サポートされている Azure リージョンにデプロイします。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4184,7 +4189,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4196,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
+          <t>ゾーン冗長の ExpressRoute ゲートウェイを、サポートされている Azure リージョンにデプロイします。</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4234,7 +4239,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4246,7 +4251,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11ccの-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットが 10 Gbps を超える必要がある場合は、FastPath を有効にしてデータ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4284,7 +4289,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
@@ -4296,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11ccの-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットが 10 Gbps を超える必要がある場合は、FastPath を有効にしてデータ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4346,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを ExpressRoute 経由で接続します。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4384,7 +4389,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I75" s="16" t="inlineStr">
@@ -4396,7 +4401,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、分離されたルーティング ドメインを確保し、ノイズの多いネイバー リスクを軽減することができます。</t>
+          <t>ExpressRoute グローバル リーチを使用して、Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを ExpressRoute 経由で接続します。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4434,7 +4439,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I76" s="16" t="inlineStr">
@@ -4446,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、分離されたルーティング ドメインを確保し、ノイズの多いネイバー リスクを軽減することができます。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4484,7 +4489,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I77" s="16" t="inlineStr">
@@ -4496,7 +4501,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,7 +4522,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>接続モニターは、環境全体の接続モニターに使用します。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4534,7 +4539,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I78" s="16" t="inlineStr">
@@ -4546,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,7 +4572,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>単一のピアリング場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が発生し、組織はピアリング場所の停止の影響を受けやすくなります。</t>
+          <t>接続モニターは、環境全体の接続モニターに使用します。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4584,7 +4589,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
@@ -4596,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4612,12 +4617,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
+          <t>単一のピアリング場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が発生し、組織はピアリング場所の停止の影響を受けやすくなります。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4634,19 +4639,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,7 +4672,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、パブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認する</t>
+          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,14 +4694,14 @@
       </c>
       <c r="I81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>プライベート リンク (使用可能な場合) は、共有 Azure PaaS サービスに使用します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、パブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認する</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4734,19 +4739,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから Azure PaaS サービスに ExpressRoute プライベート ピアリング経由でアクセスします。このメソッドは、パブリック インターネット経由の転送を回避します。</t>
+          <t>プライベート リンク (使用可能な場合) は、共有 Azure PaaS サービスに使用します。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,14 +4794,14 @@
       </c>
       <c r="I83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>プライベートリンクが使用できない場合に仮想ネットワークサービスエンドポイントを使用する</t>
+          <t>オンプレミスから Azure PaaS サービスに ExpressRoute プライベート ピアリング経由でアクセスします。このメソッドは、パブリック インターネット経由の転送を回避します。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,14 +4844,14 @@
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,7 +4872,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>プライベートリンクが使用できない場合に仮想ネットワークサービスエンドポイントを使用する</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4896,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,7 +4922,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は、仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4946,7 +4951,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は、仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4996,7 +5001,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5012,12 +5017,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>パース</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールを使用して、インターネットへの Azure アウトバウンド トラフィック、非 HTTP/S インバウンド接続、および東/西トラフィック フィルタリング (組織で必要な場合) を管理します。</t>
+          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,14 +5044,14 @@
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブまたはハブ仮想ネットワークに Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、仮想 WAN と通常の仮想ネットワークの両方で一般提供が開始されました。</t>
+          <t>Azure ファイアウォールを使用して、インターネットへの Azure アウトバウンド トラフィック、非 HTTP/S インバウンド接続、および東/西トラフィック フィルタリング (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5084,7 +5089,7 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
@@ -5096,7 +5101,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、それをすべての Azure Firewall インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して、増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たすための詳細なポリシーを可能にします。</t>
+          <t>仮想 WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブまたはハブ仮想ネットワークに Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、仮想 WAN と通常の仮想ネットワークの両方で一般提供が開始されました。</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5146,7 +5151,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>組織がこのようなソリューションを使用して送信接続を保護する場合は、ファイアウォール マネージャー内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、それをすべての Azure Firewall インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して、増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たすための詳細なポリシーを可能にします。</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5196,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>着陸ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>組織がこのようなソリューションを使用して送信接続を保護する場合は、ファイアウォール マネージャー内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,14 +5244,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,7 +5272,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続を Azure リージョン全体でグローバルに保護します。</t>
+          <t>着陸ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5284,7 +5289,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5296,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Front Door からのみトラフィックを受信するように Azure Application Gateway をロックダウンします。</t>
+          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続を Azure リージョン全体でグローバルに保護します。</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5334,7 +5339,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5346,7 +5351,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>パートナー NVA が受信 HTTP/S 接続に必要な場合は、ランディング ゾーンの仮想ネットワーク内に、保護してインターネットに公開しているアプリと共に展開します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Front Door からのみトラフィックを受信するように Azure Application Gateway をロックダウンします。</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,14 +5394,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS 保護標準保護プランを使用して、仮想ネットワーク内でホストされているすべてのパブリック エンドポイントを保護します。</t>
+          <t>パートナー NVA が受信 HTTP/S 接続に必要な場合は、ランディング ゾーンの仮想ネットワーク内に、保護してインターネットに公開しているアプリと共に展開します。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5434,19 +5439,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5462,12 +5467,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>内部向けアプリ (corp) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>Azure DDoS 保護標準保護プランを使用して、仮想ネットワーク内でホストされているすべてのパブリック エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5484,19 +5489,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,7 +5522,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>内部向けアプリ (corp) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5534,7 +5539,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5546,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,7 +5572,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
+          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5584,19 +5589,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,7 +5622,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>着陸ゾーンの仮想ネットワーク内およびセキュリティで保護しているアプリとの受信 HTTP/S 接続に使用される Azure Application Gateway v2 またはパートナー NVA をデプロイします。</t>
+          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5634,19 +5639,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,7 +5672,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS 標準保護プランを使用します。</t>
+          <t>着陸ゾーンの仮想ネットワーク内およびセキュリティで保護しているアプリとの受信 HTTP/S 接続に使用される Azure Application Gateway v2 またはパートナー NVA をデプロイします。</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,14 +5694,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、Azure リージョンにまたがるグローバルな HTTP/S アプリを提供し、保護します。</t>
+          <t>ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS 標準保護プランを使用します。</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5746,7 +5751,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,7 +5772,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>フロント ドアとアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、フロント ドアで WAF ポリシーを使用します。アプリケーションゲートウェイをロックダウンして、フロントドアからのみトラフィックを受信します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、Azure リージョンにまたがるグローバルな HTTP/S アプリを提供し、保護します。</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5784,7 +5789,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5796,7 +5801,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,7 +5822,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>フロント ドアとアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、フロント ドアで WAF ポリシーを使用します。アプリケーションゲートウェイをロックダウンして、フロントドアからのみトラフィックを受信します。</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5834,7 +5839,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5846,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,13 +5872,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替として考慮されていますか?</t>
+          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5884,19 +5889,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5912,18 +5917,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディング ゾーンの所有者に委任します。</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替として考慮されていますか?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5934,19 +5939,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5962,12 +5967,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開いているファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを許可することを検討してください。</t>
+          <t>サブネットの作成をランディング ゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5989,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-バブ-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6012,12 +6017,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用すると、サブネット間のトラフィックと、プラットフォーム全体の東西のトラフィック (ランディング ゾーン間のトラフィック) を保護できます。</t>
+          <t>ネットワーク内の着信接続用に開いているファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを許可することを検討してください。</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,19 +6039,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-バブ-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG を使用すると、サブネット間のトラフィックと、プラットフォーム全体の東西のトラフィック (ランディング ゾーン間のトラフィック) を保護できます。</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6089,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6101,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6134,7 +6139,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6146,7 +6151,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する洞察を得ます。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6194,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する洞察を得ます。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6244,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN トポロジの場合、ランディング ゾーンを流れるトラフィックのフィルター処理とログ機能が組織で必要な場合は、Azure Firewall 経由でランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,14 +6294,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6312,12 +6317,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、フローにおけるこの暗号化を示しています。</t>
+          <t>仮想 WAN トポロジの場合、ランディング ゾーンを流れるトラフィックのフィルター処理とログ機能が組織で必要な場合は、Azure Firewall 経由でランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6337,12 +6342,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間のトラフィックを暗号化する必要がある場合は、グローバル VNet ピアリングを使用して、リージョン間で仮想ネットワークに接続します。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、フローにおけるこの暗号化を示しています。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,19 +6389,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6413,7 +6417,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>MACsec がオプションではない (ExpressRoute Direct を使用しないなど) 仮想 WAN シナリオでは、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>Azure リージョン間のトラフィックを暗号化する必要がある場合は、グローバル VNet ピアリングを使用して、リージョン間で仮想ネットワークに接続します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,7 +6434,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6442,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6458,12 +6462,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>ネットワークウォッチャーパケットを使用して、キャプチャウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>MACsec がオプションではない (ExpressRoute Direct を使用しないなど) 仮想 WAN シナリオでは、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,19 +6484,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6513,7 +6517,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログの最新バージョンが必要な詳細レベルを提供するかどうかを評価します。</t>
+          <t>ネットワークウォッチャーパケットを使用して、キャプチャウィンドウが限られているにもかかわらずキャプチャします。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6530,15 +6534,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6559,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>詳細なパケット検査を必要とするシナリオにパートナー ソリューションを使用します。</t>
+          <t>NSG フロー ログの最新バージョンが必要な詳細レベルを提供するかどうかを評価します。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6576,14 +6584,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6604,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは受け入れられるかもしれませんが、複雑さと発生する可能性のあるサポート性の問題のため、大規模では推奨しません。</t>
+          <t>詳細なパケット検査を必要とするシナリオにパートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6621,7 +6629,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6629,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6640,17 +6648,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
+          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは受け入れられるかもしれませんが、複雑さと発生する可能性のあるサポート性の問題のため、大規模では推奨しません。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6667,19 +6675,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6700,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>ランディングゾーンは文書化されていますか?</t>
+          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6715,13 +6719,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6742,7 +6754,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>ログの保持要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージを 1 回限りの書き込みポリシー、多読ポリシーと共に使用して、ユーザーが指定した間隔の間、データを消去不可および変更不可にします。</t>
+          <t>ランディングゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6757,21 +6769,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6792,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy では、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を確保できます。</t>
+          <t>ログの保持要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージを 1 回限りの書き込みポリシー、多読ポリシーと共に使用して、ユーザーが指定した間隔の間、データを消去不可および変更不可にします。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6821,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6842,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを使用してト構成監査機能を有効にすると、アプリケーションチームのワークロードがわずかな労力で機能機能をすぐに使用できるようになります。</t>
+          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy では、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を確保できます。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6859,19 +6863,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6892,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Azure オートメーションの更新プログラム管理を、Windows VM と Linux VM の両方の長期的な修正プログラムの適用メカニズムとして使用します。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーションチームのワークロードがわずかな労力で機能機能をすぐに使用できるようになります。</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6909,19 +6913,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6942,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>ネットワークウォッチャーを使用してトラフィックフローをプロアクティブに監視する</t>
+          <t>Azure オートメーションの更新プログラム管理を、Windows VM と Linux VM の両方の長期的な修正プログラムの適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6959,19 +6963,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6992,7 +6996,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>ネットワークウォッチャーを使用してトラフィックフローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7009,19 +7013,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7042,13 +7046,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、適切なガードレールが確実に配置され、リソースをデプロイおよび構成できるユーザーと、そのユーザーがデプロイおよび構成できるリソースが適用されます。</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7059,14 +7063,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7087,13 +7096,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、適切なガードレールが確実に配置され、リソースをデプロイおよび構成できるユーザーと、そのユーザーがデプロイおよび構成できるリソースが適用されます。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7104,14 +7113,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7132,7 +7141,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure サービス正常性プラットフォームの一部として含めて、アラートまたは問題を処理できるようにします。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7149,14 +7158,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7177,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure に保持されるという原則を採用してください。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>アラートとアクション グループを Azure サービス正常性プラットフォームの一部として含めて、アラートまたは問題を処理できるようにします。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7194,14 +7203,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7222,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure に保持されるという原則を採用してください。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7239,14 +7248,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7267,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログを使用して、分析情報とレポートを作成します。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7284,14 +7293,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7312,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能ログ ストレージに使用します。</t>
+          <t>Azure Monitor ログを使用して、分析情報とレポートを作成します。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7329,14 +7338,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7357,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能ログ ストレージに使用します。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7374,14 +7383,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7402,7 +7411,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure サイト リカバリーを Azure から Azure への仮想マシンのディザスター リカバリー シナリオに採用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7419,14 +7428,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7447,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>ネイティブ PaaS サービスの災害時リカバリー機能を使用してテストしてください。</t>
+          <t>Azure サイト リカバリーを Azure から Azure への仮想マシンのディザスター リカバリー シナリオに採用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7464,14 +7473,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7492,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/お客様が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>ネイティブ PaaS サービスの災害時リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7509,14 +7518,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7527,23 +7536,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を保存する</t>
+          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/お客様が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7554,14 +7563,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7572,17 +7581,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラート構成が適用されていることを確認する</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7599,14 +7608,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7627,13 +7636,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと削除ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を保存する</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7644,14 +7653,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7672,7 +7681,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>最小限の特権モデルに従って、キー、シークレット、および証明書を完全に削除する承認を、特殊なカスタム Azure Active Directory (Azure AD) ロールに制限します。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7689,14 +7698,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7717,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局による証明書の管理と更新のプロセスを自動化して、管理を容易にします。</t>
+          <t>論理的な削除ポリシーと削除ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7741,7 +7750,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7762,7 +7771,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動プロセスを確立します。</t>
+          <t>最小限の特権モデルに従って、キー、シークレット、および証明書を完全に削除する承認を、特殊なカスタム Azure Active Directory (Azure AD) ロールに制限します。</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7786,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7807,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>コンテナーのファイアウォールおよび仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>パブリック認証局による証明書の管理と更新のプロセスを自動化して、管理を容易にします。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7831,7 +7840,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7852,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、およびシークレットの使用状況を監査します。</t>
+          <t>キーと証明書のローテーションの自動プロセスを確立します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7869,14 +7878,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7897,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>コンテナーのファイアウォールおよび仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7921,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7942,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能については、既定で Microsoft が管理するキーを使用し、必要に応じて顧客管理キーを使用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、およびシークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7959,14 +7968,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7987,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごとに、リージョンごとの環境ごとに使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8011,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8032,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているわけではありません。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切な領域ペアと障害復旧領域を選択します。</t>
+          <t>プリンシパル暗号化機能については、既定で Microsoft が管理するキーを使用し、必要に応じて顧客管理キーを使用します。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8049,14 +8058,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8072,18 +8081,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure Key Vault は、アプリケーションごとに、リージョンごとの環境ごとに使用します。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8094,14 +8103,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8117,12 +8126,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、ポリシーの追加モードを使用して使用を強制します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているわけではありません。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切な領域ペアと障害復旧領域を選択します。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8139,14 +8148,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8167,13 +8176,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8191,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8212,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てることができるようにする</t>
+          <t>必要な Azure タグを特定し、ポリシーの追加モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8229,14 +8238,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8257,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、ポリシーの割り当てを最上位の適切なレベルで管理し、除外を最下位レベルで管理します。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8281,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8302,13 +8311,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てることができるようにする</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8326,7 +8335,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8347,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>可能な限り組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+          <t>必要に応じて、ポリシーの割り当てを最上位の適切なレベルで管理し、除外を最下位レベルで管理します。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8371,7 +8380,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8392,13 +8401,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8416,7 +8425,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8437,7 +8446,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループ スコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>可能な限り組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8461,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8482,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8499,14 +8508,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8527,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM セキュリティ構成のドリフトを監視します。</t>
+          <t>ルート管理グループ スコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8544,14 +8553,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8567,12 +8576,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8589,14 +8598,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8612,12 +8621,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure モニター ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、Azure Storage にエクスポートして、2 年以上の長期ストレージに使用してください。</t>
+          <t>Azure ポリシーを使用して VM セキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8634,14 +8643,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8662,7 +8671,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8679,14 +8688,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8707,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor Logs と Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用範囲を監視します。</t>
+          <t>Azure アクティビティ ログを Azure モニター ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、Azure Storage にエクスポートして、2 年以上の長期ストレージに使用してください。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8724,14 +8733,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8752,7 +8761,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を、一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8769,14 +8778,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8797,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのインシデント対応計画を決定してから、運用環境に許可します。</t>
+          <t>Azure Monitor Logs と Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用範囲を監視します。</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8814,14 +8823,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8842,7 +8851,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>既定のリソース構成を、一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8859,14 +8868,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8887,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>Azure サービスのインシデント対応計画を決定してから、運用環境に許可します。</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8911,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8932,7 +8941,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求が満たされる方法を計画する</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8949,14 +8958,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8965,30 +8974,90 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>新しい Azure サービスの実装方法を計画する</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Azure サービスのサービス要求が満たされる方法を計画する</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
@@ -11035,7 +11104,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
+          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Enusre は、すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一部としてサブスクリプション サポートの制限を認識していることです。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一部としてサブスクリプション サポートの制限を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="I40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J40" s="23" t="n"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
@@ -5144,7 +5144,7 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
@@ -5194,7 +5194,7 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>リザーブドインスタンスの使用を強制して、必要なリージョンの予約容量に優先順位を付けます。これにより、ワークロードには、特定のリージョンでそのリソースに対する需要が高い場合でも、必要な容量が割り当てられます。</t>
+          <t>必要に応じてリザーブドインスタンスを使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。購入したリザーブドインスタンス VM SKU の使用を Azure ポリシーで強制します。</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーンのレビュー</t>
+          <t>Azure ランディング ゾーン レビュー</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>緊急アクセスまたは損益証券アカウントを実装して、テナント全体のアカウントロックアウトを防ぐ</t>
+          <t>緊急アクセスまたは休憩用アカウントを実装して、テナント全体のアカウントのロックアウトを防ぐ</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに対する RBAC モデルの適用</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD の条件付きアクセス ポリシーを適用する</t>
+          <t>Azure 環境への権限を持つすべてのユーザーに Azure AD の条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>Azure 環境への権限を持つすべてのユーザーに多要素認証を適用する</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>役割とセキュリティ要件に基づいてランディングゾーン内に展開されたリソースを管理するために、一元化された委任された責任を強制する</t>
+          <t>一元化された委任された責任を適用して、役割とセキュリティの要件に基づいてランディングゾーン内に展開されたリソースを管理する</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>認証の種類は、すべてのアカウントの種類に対してのみ、職場または学校アカウントを使用します。Microsoft アカウントの使用を避ける</t>
+          <t>認証の種類 [職場または学校] アカウントは、すべてのアカウントの種類に対してのみ使用します。マイクロソフト アカウントの使用を避ける</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>グループのみを使用して、アクセス許可を割り当てます。グループ管理システムが既に配置されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
+          <t>グループを使用して権限を割り当てることのみを行います。グループ管理システムが既に配置されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ操作、サブスクリプション所有者、アプリケーション所有者などの主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
+          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ操作、サブスクリプション所有者、アプリケーション所有者の主要な役割に Azure カスタム ロールを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory Domains Services (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにしか投影できないため、プライマリ リージョン内に AADD をデプロイします。</t>
+          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにしか投影できないため、プライマリ リージョン内に AADD をデプロイします。</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>AAADD が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
+          <t>AADD が使用中の場合は、すべてのワークロードの互換性を評価します。</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代替として使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代替として使用して、リモート ユーザーが内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>理想的には、3 ~ 4 レベル以下の合理的にフラットな管理グループ階層を強制する</t>
+          <t>理想的には、3 ~ 4 レベル以下の合理的にフラットな管理グループ階層を適用します。</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用してリソース タグを強制または追加する</t>
+          <t>Azure ポリシーによるリソース タグの適用または追加</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を実験できるようにする</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure 仮想 WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
+          <t>プラットフォーム管理グループで専用の接続サブスクリプションを適用して、Azure Virtual WAN ハブ、プライベート ドメイン ネーム システム (DNS)、ExpressRoute 回線、およびその他のネットワーク リソースをホストします。</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にサブスクリプションが配置されないことを強制する</t>
+          <t>ルート管理グループの下にサブスクリプションを配置しないことを強制する</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>ルートレベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続性、および機能のニーズに基づいてワークロードの種類を表します。</t>
+          <t>ルートレベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続性、および機能のニーズに基づいて、ワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、アクセスレビュー、予算レビュー、ポリシーコンプライアンス、必要に応じて修復するプロセスを適用します。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーの遵守にアクセスし、必要に応じて修復するプロセスを適用します。</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>必要に応じてリザーブドインスタンスを使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。購入したリザーブドインスタンス VM SKU の使用を Azure ポリシーで強制します。</t>
+          <t>必要に応じてリザーブドインスタンスを使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入したリザーブドインスタンス VM SKU の使用を強制します。</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開領域内で利用可能であることを確認する</t>
+          <t>必要なサービスと機能が選択した展開リージョン内で利用可能であることを確認する</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Windows Server 上の AD の場合は、Windows Server Active Directory ドメイン コントローラーをホストするために、プラットフォーム管理グループに専用の ID サブスクリプションを確立します。</t>
+          <t>AD が Windows Server 上にある場合は、プラットフォーム管理グループに専用の ID サブスクリプションを確立して、Windows Server Active Directory ドメイン コントローラーをホストします。</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間がないようにします。</t>
+          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間がないことを確認する</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>プライベートインターネットのアドレス割り当てから IP アドレスを使用するようにしてください (RFC 1918)。</t>
+          <t>プライベートインターネットのアドレス割り当てからIPアドレスを使用するようにしてください(RFC 1918)。</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2710,7 +2710,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad(3f630472-622f54b69bad)</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにする、不必要に大きい仮想ネットワーク (/16 など) を作成しない</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大規模な仮想ネットワークを作成しない (/16 など)</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認します (特に組織によって所有されていない場合)。</t>
+          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認します (特に組織が所有していない場合は特に)。</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Azure での名前解決だけで済む環境では、Azure プライベート DNS を使用して解決します。名前解決用の委任ゾーン ('azure.contoso.com' など) を作成します。</t>
+          <t>Azure での名前解決だけが必要な環境では、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ('azure.contoso.com' など) を作成します。</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特別なワークロードは、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特殊なワークロードでは、優先する DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために仮想 WAN を検討し、仮想 WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>Azure ネットワーク管理を簡素化するために仮想 WAN を検討し、シナリオが仮想 WAN ルーティング設計の一覧に明示的に記述されていることを確認してください。</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して、Azure リージョン間で複数のランディング ゾーンを一緒に接続します。</t>
+          <t>Azure リージョンごとの仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して、Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>サイト間 VPN 経由でブランチとリモート ロケーションを最も近い仮想 WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して仮想 WAN へのブランチ接続を有効にします。</t>
+          <t>サイト間 VPN 経由でブランチとリモートの場所を最も近い仮想 WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して仮想 WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>「Azure のトラフィックは Azure にとどまる」という原則に従って、Azure 内のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるようにします。</t>
+          <t>Azure のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるように、"Azure のトラフィックは Azure にとどまる" という原則に従います。</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理については、Azure ファイアウォールをデプロイします。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理を行うには、Azure ファイアウォールをデプロイします。</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWANにパートナーネットワーキングテクノロジとNVAを展開する場合は、パートナーベンダーのガイダンスを使用して構成を確認し、競合する構成がないことを確認します。</t>
+          <t>VWANでパートナーネットワークテクノロジとNVAを展開する場合は、パートナーベンダーのガイダンスに従って構成を確認し、競合する構成がないことを確認します。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Azure Virtual WAN および Azure Firewall リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>Azure Virtual WAN リソースと Azure Firewall リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、仮想 WAN、状態、および主要なメトリックのエンドツーエンドのトポロジを監視します。</t>
+          <t>Azure Monitor Insights for Virtual WAN を使用して、仮想 WAN のエンドツーエンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3639,12 +3639,12 @@
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハブとスポーク</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください: 1 つの Azure リージョン内にデプロイされたネットワーク アーキテクチャ。ネットワーク アーキテクチャは複数の Azure リージョンにまたがり、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN 接続と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化されたNVAときめ細かいルーティングに依存しています。</t>
+          <t>次のシナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください: 単一の Azure リージョン内にデプロイされたネットワーク アーキテクチャ。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。複数の Azure リージョンにまたがるネットワーク アーキテクチャで、Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリング。VPN 接続と ExpressRoute 接続間の推移的な接続を必要としないネットワーク アーキテクチャ。主なハイブリッド接続方法は ExpressRoute で、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。集中型NVAときめ細かいルーティングに依存しています。</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3689,12 +3689,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハブとスポーク</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure Firewall などの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA を確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォール、またはパートナー NVA などの共有サービスが中央ハブ仮想ネットワーク内にあることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3734,7 +3734,7 @@
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハブとスポーク</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
@@ -3779,12 +3779,12 @@
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハブとスポーク</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Azure Application Gateway などの受信 L7 サービスを、中央ハブ仮想ネットワーク内の共有サービスとしてデプロイしないでください。代わりに、アプリと共にそれぞれのランディング ゾーンに展開します。</t>
+          <t>Azure Application Gateway などの受信 L7 サービスを共有サービスとして中央ハブ仮想ネットワークにデプロイしないでください。代わりに、それぞれのランディングゾーンにアプリと一緒に展開します。</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハブとスポーク</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハブとスポーク</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを使用するネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーンの仮想ネットワークに接続します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーンの仮想ネットワークに接続します。</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハブとスポーク</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンに展開し、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン全体のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハブとスポーク</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>ハブアンドスポーク</t>
+          <t>ハブとスポーク</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を Azure へのプライマリ接続として使用する可能性を調査したことを確認します。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>ゾーン冗長の ExpressRoute ゲートウェイを、サポートされている Azure リージョンにデプロイします。</t>
+          <t>ゾーン冗長 ExpressRoute ゲートウェイを、サポートされている Azure リージョンにデプロイします。</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute Direct を使用します。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4301,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11ccの-458b-9a4b-1511e43a58a9</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットが 10 Gbps を超える必要がある場合は、FastPath を有効にしてデータ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットが 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復力を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを ExpressRoute 経由で接続します。</t>
+          <t>ExpressRoute グローバル リーチを使用して、大規模なオフィス、地域本社、またはデータセンターを ExpressRoute 経由で Azure に接続します。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境を分離する場合など、トラフィックの分離または専用帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、分離されたルーティング ドメインを確保し、ノイズの多いネイバー リスクを軽減することができます。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>接続モニターは、環境全体の接続モニターに使用します。</t>
+          <t>接続モニターは、環境全体の接続監視に使用します。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>単一のピアリング場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が発生し、組織はピアリング場所の停止の影響を受けやすくなります。</t>
+          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これにより、単一障害点が発生し、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、パブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認する</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、パブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が中断されていないことを確認する</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>プライベート リンク (使用可能な場合) は、共有 Azure PaaS サービスに使用します。</t>
+          <t>共有 Azure PaaS サービスには、プライベート リンク (使用可能な場合) を使用します。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから Azure PaaS サービスに ExpressRoute プライベート ピアリング経由でアクセスします。このメソッドは、パブリック インターネット経由の転送を回避します。</t>
+          <t>オンプレミスから Azure PaaS サービスにアクセスするには、ExpressRoute プライベート ピアリングを使用します。この方法では、パブリック インターネット経由の転送を回避できます。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>プライベートリンクが使用できない場合に仮想ネットワークサービスエンドポイントを使用する</t>
+          <t>プライベートリンクが利用できない場合に仮想ネットワークサービスエンドポイントを使用する</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は、仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の問題がある場合は、仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールを使用して、インターネットへの Azure アウトバウンド トラフィック、非 HTTP/S インバウンド接続、および東/西トラフィック フィルタリング (組織で必要な場合) を管理します。</t>
+          <t>Azure ファイアウォールを使用して、インターネットへの Azure 送信トラフィック、非 HTTP/S 受信接続、および東/西トラフィック フィルター (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブまたはハブ仮想ネットワークに Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、仮想 WAN と通常の仮想ネットワークの両方で一般提供が開始されました。</t>
+          <t>仮想 WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブまたはハブ仮想ネットワーク内で Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、仮想 WAN と通常の仮想ネットワークの両方で一般提供できるようになりました。</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、それをすべての Azure Firewall インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して、増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たすための詳細なポリシーを可能にします。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たすためのきめ細かいポリシーを許可します。</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>組織がこのようなソリューションを使用して送信接続を保護する場合は、ファイアウォール マネージャー内でサポートされているパートナーの SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>組織がこのようなソリューションを使用して送信接続を保護する場合は、ファイアウォールマネージャー内でサポートされているパートナーSaaSセキュリティプロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>着陸ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続を Azure リージョン全体でグローバルに保護します。</t>
+          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Front Door からのみトラフィックを受信するように Azure Application Gateway をロックダウンします。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのみトラフィックを受信します。</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>パートナー NVA が受信 HTTP/S 接続に必要な場合は、ランディング ゾーンの仮想ネットワーク内に、保護してインターネットに公開しているアプリと共に展開します。</t>
+          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーンの仮想ネットワーク内に展開し、保護してインターネットに公開しているアプリと共に展開します。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
@@ -5567,12 +5567,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
@@ -5667,12 +5667,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>着陸ゾーンの仮想ネットワーク内およびセキュリティで保護しているアプリとの受信 HTTP/S 接続に使用される Azure Application Gateway v2 またはパートナー NVA をデプロイします。</t>
+          <t>ランディング ゾーン仮想ネットワーク内およびセキュリティで保護しているアプリを使用して、受信 HTTP/S 接続に使用される Azure Application Gateway v2 またはパートナー NVA をデプロイします。</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5717,12 +5717,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS 標準保護プランを使用します。</t>
+          <t>ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS 標準保護計画を使用します。</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5767,12 +5767,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、Azure リージョンにまたがるグローバルな HTTP/S アプリを提供し、保護します。</t>
+          <t>Azure Front Door と WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5817,12 +5817,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>フロント ドアとアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、フロント ドアで WAF ポリシーを使用します。アプリケーションゲートウェイをロックダウンして、フロントドアからのみトラフィックを受信します。</t>
+          <t>フロント ドアとアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーションゲートウェイをロックダウンして、フロントドアからのみトラフィックを受信します。</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
@@ -5917,12 +5917,12 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替として考慮されていますか?</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として考慮されていますか?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -6017,12 +6017,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>アプリの配信</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開いているファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを許可することを検討してください。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6051,7 +6051,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-バブ-8ba6772e5c30</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用すると、サブネット間のトラフィックと、プラットフォーム全体の東西のトラフィック (ランディング ゾーン間のトラフィック) を保護できます。</t>
+          <t>NSG を使用すると、サブネット間のトラフィックと、プラットフォーム全体の東西トラフィック (ランディング ゾーン間のトラフィック) を保護できます。</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG のアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN トポロジの場合、ランディング ゾーンを流れるトラフィックのフィルター処理とログ機能が組織で必要な場合は、Azure Firewall 経由でランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>Virtual WAN トポロジの場合、組織がランディング ゾーンを経由するトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall 経由でランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、フローにおけるこの暗号化を示しています。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>MACsec がオプションではない (ExpressRoute Direct を使用しないなど) 仮想 WAN シナリオでは、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>MACsec がオプションではない (たとえば、ExpressRoute Direct を使用しない) 仮想 WAN シナリオでは、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログの最新バージョンが必要な詳細レベルを提供するかどうかを評価します。</t>
+          <t>NSG フロー ログの最新バージョンが必要な詳細レベルを提供しているかどうかを評価します。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>詳細なパケット検査を必要とするシナリオにパートナー ソリューションを使用します。</t>
+          <t>詳細なパケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは受け入れられるかもしれませんが、複雑さと発生する可能性のあるサポート性の問題のため、大規模では推奨しません。</t>
+          <t>トラフィックをミラーリングするカスタムソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模には推奨しません。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
+          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>ログの保持要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。不変ストレージを 1 回限りの書き込みポリシー、多読ポリシーと共に使用して、ユーザーが指定した間隔の間、データを消去不可および変更不可にします。</t>
+          <t>ログ保持要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リード・マルチプル・ポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更不能にします。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy では、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を確保できます。</t>
+          <t>Azure Policy を使用して、アクセス制御とコンプライアンスのレポートを作成します。Azure Policy には、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーションチームのワークロードがわずかな労力で機能機能をすぐに使用できるようになります。</t>
+          <t>Azure ポリシーを使用して、ゲスト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを通じてゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードが、わずかな労力ですぐに機能機能を消費できるようになります。</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Azure オートメーションの更新プログラム管理を、Windows VM と Linux VM の両方の長期的な修正プログラムの適用メカニズムとして使用します。</t>
+          <t>Azure オートメーションの更新プログラム管理は、Windows VM と Linux VM の両方の長期的なパッチ適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>リソース ロックを使用して、重要な共有サービスを誤って削除しないようにします。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、適切なガードレールが確実に配置され、リソースをデプロイおよび構成できるユーザーと、そのユーザーがデプロイおよび構成できるリソースが適用されます。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを強制するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure サービス正常性プラットフォームの一部として含めて、アラートまたは問題を処理できるようにします。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題をアクションに確実に処理できるようにします。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure に保持されるという原則を採用してください。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用してください。オンプレミスの SIEM 統合が必要な場合は、ログの代わりに重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC でログ アクセスを制御します。</t>
+          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC によるログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7300,7 +7300,7 @@
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752 9945bda4-34182ba52752 9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログを使用して、分析情報とレポートを作成します。</t>
+          <t>Azure モニター ログを使用して、分析情報とレポートを作成します。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、ランディング ゾーン内の共有ストレージ アカウントを Azure 診断拡張機能ログ ストレージに使用します。</t>
+          <t>必要に応じて、Azure 診断拡張機能のログ ストレージのランディング ゾーン内で共有ストレージ アカウントを使用します。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure サイト リカバリーを Azure から Azure への仮想マシンのディザスター リカバリー シナリオに採用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure から Azure への仮想マシンのディザスター リカバリー シナリオに Azure Site Recovery を採用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>ネイティブ PaaS サービスの災害時リカバリー機能を使用してテストしてください。</t>
+          <t>ネイティブの PaaS サービス災害復旧機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラート構成が適用されていることを確認する</t>
+          <t>監視要件が評価され、適切なデータ収集およびアラート構成が適用されていることを確認する</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局による証明書の管理と更新のプロセスを自動化して、管理を容易にします。</t>
+          <t>公的認証局による証明書の管理と更新プロセスを自動化して、管理を容易にします。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動プロセスを確立します。</t>
+          <t>鍵と証明書のローテーションの自動プロセスを確立します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>コンテナーのファイアウォールおよび仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>コンテナーのファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能については、既定で Microsoft が管理するキーを使用し、必要に応じて顧客管理キーを使用します。</t>
+          <t>プリンシパル暗号化機能では、既定で Microsoft が管理するキーを使用し、必要に応じて顧客管理のキーを使用します。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごとに、リージョンごとの環境ごとに使用します。</t>
+          <t>リージョンごとに環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているわけではありません。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待機時間を最小限に抑える適切な領域ペアと障害復旧領域を選択します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待ち時間を最小限に抑える適切なリージョン・ペアおよび災害時リカバリー・リージョンを選択します。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure ポリシーの活用</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>規制要件とコンプライアンス要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立し、継承されたスコープで割り当てることができるようにする</t>
+          <t>Azure Policy 定義を最上位のルート管理グループで確立し、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、ポリシーの割り当てを最上位の適切なレベルで管理し、除外を最下位レベルで管理します。</t>
+          <t>必要に応じて、ポリシーの割り当てを適切な最高レベルで管理し、下位レベルで除外を管理する</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>組み込みのポリシー作成者ロールを特定のスコープに割り当てて、アプリケーションレベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループ スコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>ルート管理グループ スコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を通じてソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM セキュリティ構成のドリフトを監視します。</t>
+          <t>Azure ポリシーを使用して、VM セキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御の監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure モニター ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、Azure Storage にエクスポートして、2 年以上の長期ストレージに使用してください。</t>
+          <t>Azure アクティビティ ログを Azure モニター ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、Azure Storage にエクスポートして、2 年以上の長期ストレージに使用します。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>すべてのサブスクリプションで Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor Logs と Defender for Cloud を使用して、基本オペレーティング システムの修正プログラムの適用範囲を監視します。</t>
+          <t>Azure Monitor Logs と Defender for Cloud を使用して、基本オペレーティング システムのパッチ適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を、一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのインシデント対応計画を決定してから、運用環境に許可します。</t>
+          <t>運用環境に許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求が満たされる方法を計画する</t>
+          <t>Azure サービスに対するサービス要求の履行方法を計画する</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9064,330 +9064,990 @@
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>ネットワーク トポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door でエンドツーエンドの TLS を使用します。TLS は、クライアントからフロント ドアへの接続、およびフロント ドアからオリジンへの接続に使用します。</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>HTTP を使用して、Azure Front Door で HTTPS リダイレクトを行います。古いクライアントを HTTPS 要求に自動的にリダイレクトしてサポートします。</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door で顧客管理の TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>ネットワーク トポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door とオリジンで同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Azure フロントドア WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>ネットワーク トポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door オリジン グループにオリジンが 1 つしかない場合は、正常性プローブを無効にします。</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>ネットワーク トポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door の正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントの構築を検討してください。</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>ネットワーク トポロジと接続性</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door で HEAD 正常性プローブを使用します。Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc - 1b0c - 4495 - アルファド - 624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードは、WAF が悪意のある要求をブロックすることを保証します。</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>オペレーションズ</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用することで、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF の既定のルール セットを有効にします。デフォルトのルール・セットは、一般的な攻撃を検出してブロックします。</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルール・セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短時間で送信するのをブロックします。</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF レート制限には高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>低い</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door WAF でトラフィックをジオ フィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>管理と監視</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>高い</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>管理と監視</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>フロントドア</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Azure Front Door logs を Microsoft Sentinel に送信します。攻撃を検出し、Front Door テレメトリを Azure 環境全体に統合します。</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>未検証</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -11104,7 +11764,7 @@
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F174" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -11289,7 +11949,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、それに関連付けられたアクションアイテムはこれ以上ありません。</t>
+          <t>このチェックは検証済みであり、これ以上のアクションアイテムは関連付けられていません。</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11321,7 +11981,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解しているが、現在の要件では必要ではない</t>
+          <t>推奨事項は理解されているが、現在の要件では必要ではない</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーン レビュー</t>
+          <t>Azure ランディング ゾーンのレビュー</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,7 +1095,7 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>緊急アクセスまたは休憩用アカウントを実装して、テナント全体のアカウントのロックアウトを防ぐ</t>
+          <t>テナント全体のアカウントのロックアウトを防ぐために、緊急アクセスまたは非常用アカウントを実装する</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
+          <t>984A859C-773E-47D2-9162-3A765A917E1F</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1145,7 +1145,7 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
+          <t>348EF254-C27D-442E-ABBA-C7571559AB91</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1195,7 +1195,7 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure 環境への権限を持つすべてのユーザーに Azure AD の条件付きアクセス ポリシーを適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに Azure AD 条件付きアクセス ポリシーを適用する</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
@@ -1245,7 +1245,7 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>Azure 環境への権限を持つすべてのユーザーに多要素認証を適用する</t>
+          <t>Azure 環境に対する権限を持つすべてのユーザーに多要素認証を適用する</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
@@ -1295,7 +1295,7 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>一元化された委任された責任を適用して、役割とセキュリティの要件に基づいてランディングゾーン内に展開されたリソースを管理する</t>
+          <t>一元化された委任された責任を適用して、役割とセキュリティの要件に基づいてランディング ゾーン内にデプロイされたリソースを管理する</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
+          <t>E6A83DE5-DE32-4C19-A248-1607D5D1E4E6</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1345,7 +1345,7 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
+          <t>14658D35-58FD-4772-99B8-21112DF27EE4</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1395,7 +1395,7 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>認証の種類 [職場または学校] アカウントは、すべてのアカウントの種類に対してのみ使用します。マイクロソフト アカウントの使用を避ける</t>
+          <t>すべてのアカウントの種類に対して、認証の種類として [職場または学校アカウント] のみを使用します。マイクロソフトのアカウントの使用を避ける</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
@@ -1445,7 +1445,7 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>グループを使用して権限を割り当てることのみを行います。グループ管理システムが既に配置されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
+          <t>グループを使用してアクセス許可を割り当てるだけです。グループ管理システムが既に導入されている場合は、オンプレミスのグループを Azure-AD 専用グループに追加します。</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
@@ -1495,7 +1495,7 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ操作、サブスクリプション所有者、アプリケーション所有者の主要な役割に Azure カスタム ロールを使用することを検討してください。</t>
+          <t>Azure プラットフォーム所有者、ネットワーク管理、セキュリティ運用、サブスクリプション所有者、アプリケーション所有者の主要なロールに Azure カスタム ロールを使用することを検討してください。</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
+          <t>F5664B5E-984A-4859-A773-E7D261623A76</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1545,7 +1545,7 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>データ主権要件が存在する場合は、Azure ポリシーをデプロイして適用できます。</t>
+          <t>データ主権の要件が存在する場合は、Azure ポリシーをデプロイして適用できます</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
+          <t>5A917E1F-348E-4F25-9C27-D42E8BBBAC757</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1595,7 +1595,7 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにしか投影できないため、プライマリ リージョン内に AADD をデプロイします。</t>
+          <t>Azure Active Directory ドメイン サービス (AADDS) が使用されている場合は、このサービスは 1 つのサブスクリプションにのみ投影できるため、プライマリ リージョン内に AADDS をデプロイします。</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
@@ -1645,7 +1645,7 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>AADD が使用中の場合は、すべてのワークロードの互換性を評価します。</t>
+          <t>AADDS が使用されている場合は、すべてのワークロードの互換性を評価します。</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
@@ -1695,7 +1695,7 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>Windows サーバー上の AD が使用中の場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
+          <t>Windows サーバー上の AD が使用されている場合、必要なすべてのリソースが正しいドメイン コントローラーにアクセスできますか。</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
+          <t>AC6A9E01-E6A8-43DE-9DE3-2C1992481607</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1745,7 +1745,7 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代替として使用して、リモート ユーザーが内部アプリケーション (クラウドまたはオンプレミスでホストされている) への安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>Azure AD アプリケーション プロキシを VPN またはリバース プロキシの代わりとして使用して、リモート ユーザーに内部アプリケーション (クラウドまたはオンプレミスでホストされている) へのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
+          <t>D5D1E4E6-1465-48D3-958F-D77249B82111</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1795,7 +1795,7 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Azure AD ロールの割り当てにオンプレミスの同期アカウントを使用しないでください。</t>
+          <t>オンプレミスの同期済みアカウントを Azure AD ロールの割り当てに使用しないでください。</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>理想的には、3 ~ 4 レベル以下の合理的にフラットな管理グループ階層を適用します。</t>
+          <t>理想的には、3 つから 4 レベル以下の適度にフラットな管理グループ階層を適用します。</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>2DF27EE4-12E7-4F98-9F63-04722DD69C5B</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーによるリソース タグの適用または追加</t>
+          <t>Azure Policy を使用してリソース タグを適用または追加する</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を実験できるようにする</t>
+          <t>サンドボックス管理グループを適用して、ユーザーがすぐに Azure を試せるようにする</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>667313B4-F566-44B5-B984-A859C773E7D2</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループの下にサブスクリプションを配置しないことを強制する</t>
+          <t>ルート管理グループの下にサブスクリプションを配置しないように強制する</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>管理グループ階層設定で Azure RBAC 承認を有効にして、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
+          <t>管理グループ階層設定で Azure RBAC 承認を有効にすることで、特権ユーザーのみがテナント内の管理グループを操作できるように強制します。</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>ルートレベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続性、および機能のニーズに基づいて、ワークロードの種類を表します。</t>
+          <t>ルート レベルの管理グループの下に管理グループを適用して、セキュリティ、コンプライアンス、接続、機能のニーズに基づいてワークロードの種類を表します。</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
@@ -2219,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>92481607-D5D1-4E4E-9146-58D3558FD772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーの遵守にアクセスし、必要に応じて修復するプロセスを適用します。</t>
+          <t>リソース所有者に自分の役割と責任を認識させ、レビュー、予算レビュー、ポリシーコンプライアンスにアクセスし、必要に応じて修復するプロセスを適用します。</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一部としてサブスクリプション サポートの制限を認識していることを確認します。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション サポートの制限を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>必要に応じてリザーブドインスタンスを使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入したリザーブドインスタンス VM SKU の使用を強制します。</t>
+          <t>必要に応じてリザーブドインスタンス を使用して、コストを最適化し、ターゲットリージョンで使用可能な容量を確保します。Azure ポリシーを使用して、購入した予約インスタンス VM SKU の使用を強制します。</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2342,7 +2342,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
@@ -2360,7 +2360,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>C68E1D76-6673-413B-9F56-64B5E984A859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>ダッシュボード、ブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
+          <t>ダッシュボード、ワークブック、または手動プロセスを適用して、使用されている容量レベルを監視する</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
@@ -2410,7 +2410,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>C773E7D2-6162-43A7-95A9-17E1F348EF25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が選択した展開リージョン内で利用可能であることを確認する</t>
+          <t>選択した展開リージョン内で必要なサービスと機能を利用できることを確認する</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2442,7 +2442,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G35" s="22" t="n"/>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>コスト管理のプロセスを強制する</t>
+          <t>コスト管理のプロセスを適用する</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G36" s="22" t="n"/>
@@ -2510,7 +2510,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>AE28C84C-33B6-4B78-88B9-FE5C41049D40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G37" s="22" t="n"/>
@@ -2560,7 +2560,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>3A923C34-74D0-4001-AAC6-A9E01E6A83DE</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
@@ -2610,7 +2610,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>5DE32C19-9248-4160-9D5D-1E4E614658D3</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所間で重複する IP アドレス空間がないことを確認する</t>
+          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2642,7 +2642,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G39" s="22" t="n"/>
@@ -2660,7 +2660,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>558FD772-49B8-4211-82DF-27EE412E7F98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>プライベートインターネットのアドレス割り当てからIPアドレスを使用するようにしてください(RFC 1918)。</t>
+          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
@@ -2710,7 +2710,7 @@
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad(3f630472-622f54b69bad)</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2726,12 +2726,12 @@
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大規模な仮想ネットワークを作成しない (/16 など)</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認します (特に組織が所有していない場合は特に)。</t>
+          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
@@ -2810,7 +2810,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>E984A859-C773-4E7D-8616-23A765A917E1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2826,12 +2826,12 @@
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトに重複する IP アドレス範囲を使用しないでください。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
@@ -2860,7 +2860,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>F348EF25-4C27-4D42-B8BB-AC7571559AB9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2876,12 +2876,12 @@
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Azure での名前解決だけが必要な環境では、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ('azure.contoso.com' など) を作成します。</t>
+          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
@@ -2926,7 +2926,7 @@
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
@@ -2960,7 +2960,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>41049D40-3A92-43C3-974D-00018AC6A9E0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2976,12 +2976,12 @@
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>独自の DNS (Red Hat OpenShift など) を必要としてデプロイする特殊なワークロードでは、優先する DNS ソリューションを使用する必要があります。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G46" s="22" t="n"/>
@@ -3022,7 +3022,7 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G47" s="22" t="n"/>
@@ -3056,7 +3056,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>614658D3-558F-4D77-849B-821112DF27EE</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3072,12 +3072,12 @@
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために仮想 WAN を検討し、シナリオが仮想 WAN ルーティング設計の一覧に明示的に記述されていることを確認してください。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G48" s="22" t="n"/>
@@ -3122,12 +3122,12 @@
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとの仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して、Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G49" s="22" t="n"/>
@@ -3151,7 +3151,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>54B69bad-33AA-4D5E-AC68-E1D76667313B</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3167,7 +3167,7 @@
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G50" s="22" t="n"/>
@@ -3197,7 +3197,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>4F5664B5-E984-4A85-AC77-3E7D261623A7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G51" s="22" t="n"/>
@@ -3247,7 +3247,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>65A917E1-F348-4EF2-94C2-7D42E8BBAC75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>サイト間 VPN 経由でブランチとリモートの場所を最も近い仮想 WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して仮想 WAN へのブランチ接続を有効にします。</t>
+          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G52" s="22" t="n"/>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G53" s="22" t="n"/>
@@ -3363,12 +3363,12 @@
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>Azure のリソース間の通信が Microsoft バックボーン ネットワーク経由で行われるように、"Azure のトラフィックは Azure にとどまる" という原則に従います。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G54" s="22" t="n"/>
@@ -3409,12 +3409,12 @@
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理を行うには、Azure ファイアウォールをデプロイします。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G55" s="22" t="n"/>
@@ -3459,12 +3459,12 @@
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWANでパートナーネットワークテクノロジとNVAを展開する場合は、パートナーベンダーのガイダンスに従って構成を確認し、競合する構成がないことを確認します。</t>
+          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G56" s="22" t="n"/>
@@ -3488,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>12DF27EE-412E-47F9-A3F6-304722DD69C5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3504,12 +3504,12 @@
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Azure Virtual WAN リソースと Azure Firewall リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
@@ -3533,7 +3533,7 @@
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>B5C2622F-54B6-49BA-B33A-AD5E8C68E1D7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
@@ -3578,7 +3578,7 @@
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>6667313B-4F56-464B-9E98-4A859C773E7D</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3594,12 +3594,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>仮想WAN</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor Insights for Virtual WAN を使用して、仮想 WAN のエンドツーエンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
@@ -3623,7 +3623,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>261623A7-65A9-417E-8F34-8EF254C27D42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3639,12 +3639,12 @@
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>ハブとスポーク</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブ アンド スポーク ネットワーク トポロジに基づくネットワーク設計を検討してください: 単一の Azure リージョン内にデプロイされたネットワーク アーキテクチャ。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。複数の Azure リージョンにまたがるネットワーク アーキテクチャで、Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリング。VPN 接続と ExpressRoute 接続間の推移的な接続を必要としないネットワーク アーキテクチャ。主なハイブリッド接続方法は ExpressRoute で、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。集中型NVAときめ細かいルーティングに依存しています。</t>
+          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
@@ -3673,7 +3673,7 @@
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>E8BBAC75-7155-49AB-A153-E8908AE28C84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3689,12 +3689,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>ハブとスポーク</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォール、またはパートナー NVA などの共有サービスが中央ハブ仮想ネットワーク内にあることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
@@ -3734,12 +3734,12 @@
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>ハブとスポーク</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>パートナー ネットワーク テクノロジまたは NVA を展開するときは、パートナー ベンダーのガイダンスに従ってください。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3750,7 +3750,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
@@ -3763,7 +3763,7 @@
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>E2E8ABAC-3571-4559-AB91-53E89F89DC7B</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3779,12 +3779,12 @@
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>ハブとスポーク</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Azure Application Gateway などの受信 L7 サービスを共有サービスとして中央ハブ仮想ネットワークにデプロイしないでください。代わりに、それぞれのランディングゾーンにアプリと一緒に展開します。</t>
+          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G63" s="22" t="n"/>
@@ -3809,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>44CE3B1A-2808-4B9E-A1BF-1038DF03A822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3825,12 +3825,12 @@
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>ハブとスポーク</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間の転送が必要な場合は、Azure Route Server を使用します。</t>
+          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
@@ -3855,7 +3855,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>CE463DBB-BC8A-4C2A-AEBC-92A43DA1DAE2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,12 +3871,12 @@
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>ハブとスポーク</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーンの仮想ネットワークに接続します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G65" s="22" t="n"/>
@@ -3905,7 +3905,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>CC881471-607C-41CC-A0E6-14658DD558F9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,12 +3921,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>ハブとスポーク</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンに展開し、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン全体のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
@@ -3971,12 +3971,12 @@
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>ハブとスポーク</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor for Networks を使用して、Azure 上のネットワークのエンドツーエンドの状態を監視します。</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
@@ -4005,7 +4005,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>4722D929-C1B1-4CD6-81F5-4B29BADE39AD</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4021,12 +4021,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>ハブとスポーク</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続するときは、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
@@ -4101,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>359C373E-7DD6-4162-9A36-4A907ECAE48E</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4122,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線、または複数のオンプレミスの場所を使用する場合は、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
@@ -4151,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>F29812B2-363C-4EFE-879B-599DE0D5973C</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
@@ -4201,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>D4CD21B0-8813-47F5-B6C4-CFD3E504547C</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>ゾーン冗長 ExpressRoute ゲートウェイを、サポートされている Azure リージョンにデプロイします。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G72" s="22" t="n"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G73" s="22" t="n"/>
@@ -4301,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>72E52E36-11CC-458B-9A4B-1511E43A58A9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットが 10 Gbps を超える必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G74" s="22" t="n"/>
@@ -4351,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>C2299C4D-7B57-4D0C-9555-62F2B3E4563A</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復力を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G75" s="22" t="n"/>
@@ -4401,7 +4401,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>4D873974-8B66-42D6-B15F-512A65498F6D</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4422,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、大規模なオフィス、地域本社、またはデータセンターを ExpressRoute 経由で Azure に接続します。</t>
+          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4433,7 +4433,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
@@ -4472,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これにより、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G77" s="22" t="n"/>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G78" s="22" t="n"/>
@@ -4551,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>B30E38C3-F298-412B-8363-CEFE179B599D</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>接続モニターは、環境全体の接続監視に使用します。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
@@ -4601,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>5BF68DC9-325E-4873-BF88-F8214EF2E5D2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これにより、単一障害点が発生し、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
+          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G80" s="22" t="n"/>
@@ -4651,7 +4651,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>E0D5973C-D4CD-421B-8881-37F5E6C4CFD3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G81" s="22" t="n"/>
@@ -4722,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、パブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が中断されていないことを確認する</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4733,7 +4733,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
@@ -4751,7 +4751,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>D301D6E8-72E5-42E3-911C-C58B5A4B1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4772,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、プライベート リンク (使用可能な場合) を使用します。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
@@ -4801,7 +4801,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>E43A58A9-C229-49C4-B7B5-7D0C655562F2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4822,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから Azure PaaS サービスにアクセスするには、ExpressRoute プライベート ピアリングを使用します。この方法では、パブリック インターネット経由の転送を回避できます。</t>
+          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
@@ -4851,7 +4851,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>B3E4563A-4D87-4397-98B6-62D6D15F512A</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>プライベートリンクが利用できない場合に仮想ネットワークサービスエンドポイントを使用する</t>
+          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
@@ -4901,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>65498F6D-FE23-47DE-843B-16C31D7AA9B6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4933,7 +4933,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の問題がある場合は、仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールを使用して、インターネットへの Azure 送信トラフィック、非 HTTP/S 受信接続、および東/西トラフィック フィルター (組織で必要な場合) を管理します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
@@ -5101,7 +5101,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>E6C4CFD3-E504-4547-A244-7EC66138A720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5122,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブまたはハブ仮想ネットワーク内で Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、仮想 WAN と通常の仮想ネットワークの両方で一般提供できるようになりました。</t>
+          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、Virtual WAN と通常の仮想ネットワークの両方で一般提供されました。</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G90" s="22" t="n"/>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たすためのきめ細かいポリシーを許可します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G91" s="22" t="n"/>
@@ -5201,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>5A4B1511-E43A-458A-AC22-99C4D7B57D0C</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5222,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>組織がこのようなソリューションを使用して送信接続を保護する場合は、ファイアウォールマネージャー内でサポートされているパートナーSaaSセキュリティプロバイダーを構成します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5233,7 +5233,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G92" s="22" t="n"/>
@@ -5251,7 +5251,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>655562F2-B3E4-4563-A4D8-739748B662D6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G93" s="22" t="n"/>
@@ -5301,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>D15F512A-6549-48F6-BFE2-37DE143B16C3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5333,7 +5333,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G94" s="22" t="n"/>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのみトラフィックを受信します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5383,7 +5383,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G95" s="22" t="n"/>
@@ -5401,7 +5401,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>3B22A5A6-7E7A-48ED-9B30-E38C3F29812B</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5422,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーンの仮想ネットワーク内に展開し、保護してインターネットに公開しているアプリと共に展開します。</t>
+          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G96" s="22" t="n"/>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS 保護標準保護プランを使用して、仮想ネットワーク内でホストされているすべてのパブリック エンドポイントを保護します。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5483,7 +5483,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G97" s="22" t="n"/>
@@ -5501,7 +5501,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>088137F5-E6C4-4CFD-9E50-4547C2447EC6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,12 +5517,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>内部向けアプリ (corp) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G98" s="22" t="n"/>
@@ -5551,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>6138A720-0F1C-4E16-BD30-1D6E872E52E3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,12 +5567,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、Application Gateway v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G99" s="22" t="n"/>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G100" s="22" t="n"/>
@@ -5651,7 +5651,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>D7B57D0C-6555-462F-8B3E-4563A4D87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,12 +5667,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内およびセキュリティで保護しているアプリを使用して、受信 HTTP/S 接続に使用される Azure Application Gateway v2 またはパートナー NVA をデプロイします。</t>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G101" s="22" t="n"/>
@@ -5701,7 +5701,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>48B662D6-D15F-4512-A654-98F6DFE237DE</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,12 +5717,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS 標準保護計画を使用します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G102" s="22" t="n"/>
@@ -5767,12 +5767,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5783,7 +5783,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G103" s="22" t="n"/>
@@ -5817,12 +5817,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>フロント ドアとアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーションゲートウェイをロックダウンして、フロントドアからのみトラフィックを受信します。</t>
+          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G104" s="22" t="n"/>
@@ -5851,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>3F29812B-2363-4CEF-B179-B599DE0D5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
@@ -5883,7 +5883,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G105" s="22" t="n"/>
@@ -5901,7 +5901,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>CD4CD21B-0881-437F-9E6C-4CFD3E504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure Virtual Desktop (AVD) の代替として考慮されていますか?</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G106" s="22" t="n"/>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディング ゾーンの所有者に委任します。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5983,7 +5983,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G107" s="22" t="n"/>
@@ -6001,7 +6001,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>C2447EC6-6138-4A72-80F1-CE16ED301D6E</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,12 +6017,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>アプリの配信</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへの安全で認証されたアクセスを提供することを検討してください。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G108" s="22" t="n"/>
@@ -6051,7 +6051,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>01CA7CF1-5754-442D-バブ-8BA6772E5C30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6072,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用すると、サブネット間のトラフィックと、プラットフォーム全体の東西トラフィック (ランディング ゾーン間のトラフィック) を保護できます。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6083,7 +6083,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G109" s="22" t="n"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG のアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6133,7 +6133,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G110" s="22" t="n"/>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用して、ランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6183,7 +6183,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G111" s="22" t="n"/>
@@ -6201,7 +6201,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>A4D87397-48B6-462D-9D15-F512A65498F6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6222,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する洞察を得ます。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6233,7 +6233,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G112" s="22" t="n"/>
@@ -6251,7 +6251,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>DFE237DE-143B-416C-91D7-AA9B64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G113" s="22" t="n"/>
@@ -6301,7 +6301,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>A8042D88-E79D-417B-93B2-2A5A67E7A8ED</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6322,7 +6322,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN トポロジの場合、組織がランディング ゾーンを経由するトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall 経由でランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6333,7 +6333,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G114" s="22" t="n"/>
@@ -6372,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE 間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G115" s="22" t="n"/>
@@ -6396,7 +6396,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>DE0D5973-CD4C-4D21-A088-137F5E6C4CFD</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間のトラフィックを暗号化する必要がある場合は、グローバル VNet ピアリングを使用して、リージョン間で仮想ネットワークに接続します。</t>
+          <t>Azure リージョン間のトラフィックを暗号化する必要がある場合は、グローバル VNet ピアリングを使用して、リージョン間で仮想ネットワークを接続します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6428,7 +6428,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G116" s="22" t="n"/>
@@ -6446,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>3E504547-C244-47EC-9613-8A7200F1CE16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>MACsec がオプションではない (たとえば、ExpressRoute Direct を使用しない) 仮想 WAN シナリオでは、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>MACsec がオプションではない (たとえば、ExpressRoute Direct を使用しない) 仮想 WAN シナリオの場合は、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6478,7 +6478,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G117" s="22" t="n"/>
@@ -6496,7 +6496,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>ED301D6E-872E-452E-9611-CC58B5A4B151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>ネットワークウォッチャーパケットを使用して、キャプチャウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6528,7 +6528,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G118" s="22" t="n"/>
@@ -6546,7 +6546,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1E43A58A-9C22-499C-9D7B-57D0C655562F</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6567,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログの最新バージョンが必要な詳細レベルを提供しているかどうかを評価します。</t>
+          <t>最新バージョンの NSG フロー ログで必要な詳細レベルが提供されているかどうかを評価します。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6578,7 +6578,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G119" s="22" t="n"/>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>詳細なパケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
+          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G120" s="22" t="n"/>
@@ -6637,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>A65498F6-DFE2-437D-B143-B16C31D7AA9B</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>トラフィックをミラーリングするカスタムソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模には推奨しません。</t>
+          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模なアプローチはお勧めしません。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G121" s="22" t="n"/>
@@ -6683,7 +6683,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>64704489-A804-42D8-AE79-D17B73B22A5A</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>単一のモニター ログ ワークスペースを使用して、Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーで個別のワークスペースが義務付けられている場合を除き、プラットフォームを一元的に管理します。</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6715,7 +6715,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
@@ -6754,7 +6754,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>ランディングゾーンは文書化されていますか?</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
@@ -6775,7 +6775,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>E179B599-DE0D-4597-9CD4-CD21B088137F</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>ログ保持要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リード・マルチプル・ポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更不能にします。</t>
+          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G124" s="22" t="n"/>
@@ -6825,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>5E6C4CFD-3E50-4454-9C24-47EC66138A72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6846,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、アクセス制御とコンプライアンスのレポートを作成します。Azure Policy には、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G125" s="22" t="n"/>
@@ -6896,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、ゲスト内仮想マシン (VM) 構成のドリフトを監視します。ポリシーを通じてゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードが、わずかな労力ですぐに機能機能を消費できるようになります。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6907,7 +6907,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G126" s="22" t="n"/>
@@ -6925,7 +6925,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>E7D7E484-3276-4D8B-BC05-5BCF619E8A13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Azure オートメーションの更新プログラム管理は、Windows VM と Linux VM の両方の長期的なパッチ適用メカニズムとして使用します。</t>
+          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G127" s="22" t="n"/>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>ネットワークウォッチャーを使用してトラフィックフローをプロアクティブに監視する</t>
+          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G128" s="22" t="n"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスを誤って削除しないようにします。</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7057,7 +7057,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G129" s="22" t="n"/>
@@ -7075,7 +7075,7 @@
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>541ACDCE-9793-477B-ADB3-751AB2AB13AD</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを強制するための適切なガードレールが確実に配置されます。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G130" s="22" t="n"/>
@@ -7120,7 +7120,7 @@
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>A6E55D7D-8A2A-4DB1-87D6-326AF625CA44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要なコンポーネントです。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7152,7 +7152,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G131" s="22" t="n"/>
@@ -7165,7 +7165,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>E5695F22-23AC-4E8C-A123-08CA5017F154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題をアクションに確実に処理できるようにします。</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G132" s="22" t="n"/>
@@ -7210,7 +7210,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>D5F345BF-97AB-41A7-819C-6104BAA7D48C</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生成されたデータは Azure にとどまるという原則を採用してください。オンプレミスの SIEM 統合が必要な場合は、ログの代わりに重要なアラートを送信します。</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G133" s="22" t="n"/>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor Log Analytics ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC によるログ アクセスを制御します。</t>
+          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G134" s="22" t="n"/>
@@ -7300,7 +7300,7 @@
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752 9945bda4-34182ba52752 9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>9945BDA4-3334-4F24-A116-34182BA52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Azure モニター ログを使用して、分析情報とレポートを作成します。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7332,7 +7332,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G135" s="22" t="n"/>
@@ -7345,7 +7345,7 @@
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>6944008B-E7D7-4E48-9327-6D8BDC055BCF</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure 診断拡張機能のログ ストレージのランディング ゾーン内で共有ストレージ アカウントを使用します。</t>
+          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7377,7 +7377,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G136" s="22" t="n"/>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G137" s="22" t="n"/>
@@ -7435,7 +7435,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>97BE9951-9048-4384-9C98-6CB2913156A1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure から Azure への仮想マシンのディザスター リカバリー シナリオに Azure Site Recovery を採用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を採用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G138" s="22" t="n"/>
@@ -7480,7 +7480,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>2476E49F-541A-4CDC-B979-377BCDB3751A</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービス災害復旧機能を使用してテストしてください。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7512,7 +7512,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G139" s="22" t="n"/>
@@ -7525,7 +7525,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>B2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/お客様が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G140" s="22" t="n"/>
@@ -7570,7 +7570,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>F625CA44-E569-45F2-823A-CE8CB12308CA</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7591,7 +7591,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集およびアラート構成が適用されていることを確認する</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7602,7 +7602,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G141" s="22" t="n"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を保存する</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7647,7 +7647,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G142" s="22" t="n"/>
@@ -7660,7 +7660,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>5017F154-E3AB-4369-9829-E7E316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7692,7 +7692,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G143" s="22" t="n"/>
@@ -7705,7 +7705,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>A0477A20-9945-4BDA-9333-4F2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7726,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと削除ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7737,7 +7737,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G144" s="22" t="n"/>
@@ -7771,7 +7771,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>最小限の特権モデルに従って、キー、シークレット、および証明書を完全に削除する承認を、特殊なカスタム Azure Active Directory (Azure AD) ロールに制限します。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G145" s="22" t="n"/>
@@ -7795,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>DC055BCF-619E-48A1-9F98-879525D62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>公的認証局による証明書の管理と更新プロセスを自動化して、管理を容易にします。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7827,7 +7827,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G146" s="22" t="n"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>鍵と証明書のローテーションの自動プロセスを確立します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G147" s="22" t="n"/>
@@ -7885,7 +7885,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>913156A1-2476-4E49-B541-ACDCE979377B</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7906,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>コンテナーのファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G148" s="22" t="n"/>
@@ -7930,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>CDB3751A-B2AB-413A-BA6E-55D7D8A2ADB1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、およびシークレットの使用状況を監査します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7962,7 +7962,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G149" s="22" t="n"/>
@@ -7975,7 +7975,7 @@
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>17D6326A-F625-4CA4-9E56-95F2223ace8C</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫性のある準拠構成を適用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8007,7 +8007,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G150" s="22" t="n"/>
@@ -8020,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>B12308CA-5017-4F15-9E3A-B3693829E7E3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能では、既定で Microsoft が管理するキーを使用し、必要に応じて顧客管理のキーを使用します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G151" s="22" t="n"/>
@@ -8065,7 +8065,7 @@
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>16183687-A047-47A2-8994-5BDA43334F24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>リージョンごとに環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G152" s="22" t="n"/>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされていない可能性があります。不整合が望ましい結果を妨げないように、関連する軽減策を実装します。待ち時間を最小限に抑える適切なリージョン・ペアおよび災害時リカバリー・リージョンを選択します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G153" s="22" t="n"/>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーの活用</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8187,7 +8187,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G154" s="22" t="n"/>
@@ -8200,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>5C986CB2-9131-456A-8247-6E49F541ACDC</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8221,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、ポリシーの追加モードを使用して使用を強制します。</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8232,7 +8232,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G155" s="22" t="n"/>
@@ -8266,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>規制要件とコンプライアンス要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8277,7 +8277,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G156" s="22" t="n"/>
@@ -8290,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>D8A2ADB1-17D6-4326-AF62-5CA44E5695F2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8311,7 +8311,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy 定義を最上位のルート管理グループで確立し、継承されたスコープで割り当てられるようにする</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G157" s="22" t="n"/>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、ポリシーの割り当てを適切な最高レベルで管理し、下位レベルで除外を管理する</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G158" s="22" t="n"/>
@@ -8412,7 +8412,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G159" s="22" t="n"/>
@@ -8446,7 +8446,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>可能な限り組み込みのポリシーを使用して、運用上のオーバーヘッドを最小限に抑えます。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8457,7 +8457,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G160" s="22" t="n"/>
@@ -8470,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>BE7D7E48-4327-46D8-ADC0-55BCF619E8A1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー作成者ロールを特定のスコープに割り当てて、アプリケーションレベルのガバナンスを有効にします。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G161" s="22" t="n"/>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループ スコープで行われる Azure Policy 割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G162" s="22" t="n"/>
@@ -8560,7 +8560,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>19048384-5C98-46CB-8913-156A12476E49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8592,7 +8592,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G163" s="22" t="n"/>
@@ -8605,7 +8605,7 @@
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>F541ACDC-E979-4377-ACDB-3751AB2AB13A</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM セキュリティ構成のドリフトを監視します。</t>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G164" s="22" t="n"/>
@@ -8650,7 +8650,7 @@
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>DA6E55D7-D8A2-4ADB-817D-6326AF625CA4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8671,7 +8671,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御の監査レポートを生成します。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8682,7 +8682,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G165" s="22" t="n"/>
@@ -8695,7 +8695,7 @@
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4E5695F2-223A-4CE8-AB12-308CA5017F15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8716,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure モニター ログにエクスポートして、長期的なデータ保持を実現します。必要に応じて、Azure Storage にエクスポートして、2 年以上の長期ストレージに使用します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8727,7 +8727,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G166" s="22" t="n"/>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションで Defender for Cloud Standard を有効にします。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G167" s="22" t="n"/>
@@ -8785,7 +8785,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>09945BDA-4333-44F2-9911-634182BA5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8806,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor Logs と Defender for Cloud を使用して、基本オペレーティング システムのパッチ適用ドリフトを監視します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G168" s="22" t="n"/>
@@ -8830,7 +8830,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>15833EE7-AD6C-46D3-9331-65C7ACBE44AB</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8851,7 +8851,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor Log Analytics ワークスペースに接続します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8862,7 +8862,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G169" s="22" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>E5F8D79F-2E87-4768-924C-516775C6EA95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>運用環境に許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G170" s="22" t="n"/>
@@ -8920,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>B86AD884-08E3-4727-94B8-75BA18F20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8952,7 +8952,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G171" s="22" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>01365D38-E43F-49CC-AD86-8266ABCA264F</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8997,7 +8997,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G172" s="22" t="n"/>
@@ -9010,7 +9010,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>9A19BF39-C95D-444C-9C89-19CA1F6D5215</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9031,7 +9031,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスに対するサービス要求の履行方法を計画する</t>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9042,7 +9042,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G173" s="22" t="n"/>
@@ -9055,7 +9055,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>AE514B93-3D45-485E-8112-9BD7BA012F7B</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9087,7 +9087,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G174" s="22" t="n"/>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンドツーエンドの TLS を使用します。TLS は、クライアントからフロント ドアへの接続、およびフロント ドアからオリジンへの接続に使用します。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G175" s="22" t="n"/>
@@ -9145,7 +9145,7 @@
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>2E30ABAB-5478-417C-81BF-BF1AD4ED1ED4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>HTTP を使用して、Azure Front Door で HTTPS リダイレクトを行います。古いクライアントを HTTPS 要求に自動的にリダイレクトしてサポートします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G176" s="22" t="n"/>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと、証明書の更新による停止のリスクを軽減します。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G177" s="22" t="n"/>
@@ -9235,7 +9235,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>AF95C92D-D723-4F4A-98D7-8722324EFD4D</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で顧客管理の TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G178" s="22" t="n"/>
@@ -9280,7 +9280,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>F00A69DE-7076-4734-A734-6E4552CAD9E1</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9301,7 +9301,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door とオリジンで同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9312,7 +9312,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G179" s="22" t="n"/>
@@ -9346,7 +9346,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Azure フロントドア WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G180" s="22" t="n"/>
@@ -9370,7 +9370,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>28B9EE82-B2C7-45AA-BC98-6DE6F59A095D</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door オリジン グループにオリジンが 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9402,7 +9402,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G181" s="22" t="n"/>
@@ -9436,7 +9436,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door の正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントの構築を検討してください。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9447,7 +9447,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G182" s="22" t="n"/>
@@ -9460,7 +9460,7 @@
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>5567048E-E5D7-4206-9C55-B5ED45D2CC0C</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G183" s="22" t="n"/>
@@ -9505,7 +9505,7 @@
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>A13F72F3-8F5C-4864-95E5-75BF37FBBEB1</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検知を減らします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9537,7 +9537,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G184" s="22" t="n"/>
@@ -9550,7 +9550,7 @@
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc - 1b0c - 4495 - アルファド - 624ab70f7bd6</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9571,7 +9571,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードは、WAF が悪意のある要求をブロックすることを保証します。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9582,7 +9582,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G185" s="22" t="n"/>
@@ -9616,7 +9616,7 @@
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用することで、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9627,7 +9627,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G186" s="22" t="n"/>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定のルール セットを有効にします。デフォルトのルール・セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G187" s="22" t="n"/>
@@ -9685,7 +9685,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>49A98F2B-EC22-4A87-9415-6A10B00D6555</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理ルールを有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G188" s="22" t="n"/>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルール・セットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9762,7 +9762,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G189" s="22" t="n"/>
@@ -9775,7 +9775,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>D7DCDCB9-0D99-44B9-BAAB-AC7570EDE79A</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短時間で送信するのをブロックします。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9807,7 +9807,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G190" s="22" t="n"/>
@@ -9820,7 +9820,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>B9620385-1CDE-418F-914B-A84A06982FFC</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF レート制限には高いしきい値を使用します。高いレート制限しきい値は、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護を提供します。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9852,7 +9852,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G191" s="22" t="n"/>
@@ -9865,7 +9865,7 @@
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>6DC36C52-0124-4FFE-9EAF-23EC1282DEDB</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックをジオフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G192" s="22" t="n"/>
@@ -9910,7 +9910,7 @@
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>388A3D0E-0A43-4367-90B2-3DD2AEECE5EE</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9931,7 +9931,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF でトラフィックをジオ フィルター処理するときに、不明な (ZZ) 場所を指定します。IP アドレスを地理的に一致させることができない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G193" s="22" t="n"/>
@@ -9976,7 +9976,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認します。</t>
+          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -9987,7 +9987,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G194" s="22" t="n"/>
@@ -10021,7 +10021,7 @@
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door logs を Microsoft Sentinel に送信します。攻撃を検出し、Front Door テレメトリを Azure 環境全体に統合します。</t>
+          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10032,7 +10032,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G195" s="22" t="n"/>
@@ -10045,7 +10045,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>7F408960-C626-44CB-A018-347C8D790CDF</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations count="9">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,12 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
@@ -11850,12 +11856,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -11875,7 +11881,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>このチェックはまだ見ていません</t>
+          <t>このチェックはまだ確認されていません</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -11949,7 +11955,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>このチェックは検証済みであり、これ以上のアクションアイテムは関連付けられていません。</t>
+          <t>このチェックは検証済みであり、それ以上のアクションアイテムは関連付けられていません</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11981,7 +11987,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>推奨事項は理解されているが、現在の要件では必要ではない</t>
+          <t>推奨事項は理解されていますが、現在の要件では必要ありません</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -12013,7 +12019,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>現在の設計には適用されません</t>
+          <t>現在のデザインには適用できません</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を採用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション サポートの制限を認識していることを確認します。</t>
+          <t>すべてのサブスクリプション所有者と IT コア チームが、ワークロード設計セッションの一環としてサブスクリプション リソースの制限を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーンのレビュー</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1134,7 +1134,7 @@
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>984A859C-773E-47D2-9162-3A765A917E1F</t>
+          <t>984a859c-773e-47d2-9162-3a765a917e1f</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1184,7 +1184,7 @@
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>348EF254-C27D-442E-ABBA-C7571559AB91</t>
+          <t>348ef254-c27d-442e-abba-c7571559ab91</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1334,7 +1334,7 @@
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>E6A83DE5-DE32-4C19-A248-1607D5D1E4E6</t>
+          <t>e6a83de5-de32-4c19-a248-1607d5d1e4e6</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1384,7 +1384,7 @@
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>14658D35-58FD-4772-99B8-21112DF27EE4</t>
+          <t>14658d35-58fd-4772-99b8-21112df27ee4</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1484,7 +1484,7 @@
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>4b69bad3-3rd-45e8-a68e-1d76667313b4</t>
+          <t>4b69bad3-3aad-45e8-a68e-1d76667313b4</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1534,7 +1534,7 @@
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>F5664B5E-984A-4859-A773-E7D261623A76</t>
+          <t>f5664b5e-984a-4859-a773-e7d261623a76</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1584,7 +1584,7 @@
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>5A917E1F-348E-4F25-9C27-D42E8BBBAC757</t>
+          <t>5a917e1f-348e-4f25-9c27-d42e8bbac757</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1734,7 +1734,7 @@
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>AC6A9E01-E6A8-43DE-9DE3-2C1992481607</t>
+          <t>ac6a9e01-e6a8-43de-9de3-2c1992481607</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>D5D1E4E6-1465-48D3-958F-D77249B82111</t>
+          <t>d5d1e4e6-1465-48d3-958f-d77249b82111</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1884,7 +1884,7 @@
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2DF27EE4-12E7-4F98-9F63-04722DD69C5B</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>667313B4-F566-44B5-B984-A859C773E7D2</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2219,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>92481607-D5D1-4E4E-9146-58D3558FD772</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2360,7 +2360,7 @@
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>C68E1D76-6673-413B-9F56-64B5E984A859</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2410,7 +2410,7 @@
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>C773E7D2-6162-43A7-95A9-17E1F348EF25</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2510,7 +2510,7 @@
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>AE28C84C-33B6-4B78-88B9-FE5C41049D40</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2560,7 +2560,7 @@
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>3A923C34-74D0-4001-AAC6-A9E01E6A83DE</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2610,7 +2610,7 @@
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>5DE32C19-9248-4160-9D5D-1E4E614658D3</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2660,7 +2660,7 @@
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>558FD772-49B8-4211-82DF-27EE412E7F98</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2810,7 +2810,7 @@
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>E984A859-C773-4E7D-8616-23A765A917E1</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2860,7 +2860,7 @@
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>F348EF25-4C27-4D42-B8BB-AC7571559AB9</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2960,7 +2960,7 @@
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049D40-3A92-43C3-974D-00018AC6A9E0</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -3056,7 +3056,7 @@
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658D3-558F-4D77-849B-821112DF27EE</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3151,7 +3151,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>54B69bad-33AA-4D5E-AC68-E1D76667313B</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3197,7 +3197,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>4F5664B5-E984-4A85-AC77-3E7D261623A7</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3247,7 +3247,7 @@
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>65A917E1-F348-4EF2-94C2-7D42E8BBAC75</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3488,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12DF27EE-412E-47F9-A3F6-304722DD69C5</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3533,7 +3533,7 @@
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>B5C2622F-54B6-49BA-B33A-AD5E8C68E1D7</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3578,7 +3578,7 @@
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313B-4F56-464B-9E98-4A859C773E7D</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3623,7 +3623,7 @@
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>261623A7-65A9-417E-8F34-8EF254C27D42</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3673,7 +3673,7 @@
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>E8BBAC75-7155-49AB-A153-E8908AE28C84</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3763,7 +3763,7 @@
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>E2E8ABAC-3571-4559-AB91-53E89F89DC7B</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3809,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44CE3B1A-2808-4B9E-A1BF-1038DF03A822</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3855,7 +3855,7 @@
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>CE463DBB-BC8A-4C2A-AEBC-92A43DA1DAE2</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3905,7 +3905,7 @@
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>CC881471-607C-41CC-A0E6-14658DD558F9</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -4005,7 +4005,7 @@
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722D929-C1B1-4CD6-81F5-4B29BADE39AD</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4101,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>359C373E-7DD6-4162-9A36-4A907ECAE48E</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4151,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>F29812B2-363C-4EFE-879B-599DE0D5973C</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4201,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>D4CD21B0-8813-47F5-B6C4-CFD3E504547C</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4301,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72E52E36-11CC-458B-9A4B-1511E43A58A9</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4351,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>C2299C4D-7B57-4D0C-9555-62F2B3E4563A</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4401,7 +4401,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>4D873974-8B66-42D6-B15F-512A65498F6D</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4551,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>B30E38C3-F298-412B-8363-CEFE179B599D</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4601,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5BF68DC9-325E-4873-BF88-F8214EF2E5D2</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4651,7 +4651,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>E0D5973C-D4CD-421B-8881-37F5E6C4CFD3</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
@@ -4717,7 +4717,7 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
@@ -4751,7 +4751,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>D301D6E8-72E5-42E3-911C-C58B5A4B1511</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,7 +4767,7 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
@@ -4801,7 +4801,7 @@
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>E43A58A9-C229-49C4-B7B5-7D0C655562F2</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,7 +4817,7 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
@@ -4851,7 +4851,7 @@
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>B3E4563A-4D87-4397-98B6-62D6D15F512A</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
@@ -4901,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>65498F6D-FE23-47DE-843B-16C31D7AA9B6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
@@ -5101,7 +5101,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>E6C4CFD3-E504-4547-A244-7EC66138A720</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5201,7 +5201,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5A4B1511-E43A-458A-AC22-99C4D7B57D0C</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5251,7 +5251,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562F2-B3E4-4563-A4D8-739748B662D6</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5301,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>D15F512A-6549-48F6-BFE2-37DE143B16C3</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5401,7 +5401,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3B22A5A6-7E7A-48ED-9B30-E38C3F29812B</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5501,7 +5501,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137F5-E6C4-4CFD-9E50-4547C2447EC6</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5551,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138A720-0F1C-4E16-BD30-1D6E872E52E3</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5651,7 +5651,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>D7B57D0C-6555-462F-8B3E-4563A4D87397</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5701,7 +5701,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48B662D6-D15F-4512-A654-98F6DFE237DE</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5851,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3F29812B-2363-4CEF-B179-B599DE0D5973</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5901,7 +5901,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>CD4CD21B-0881-437F-9E6C-4CFD3E504547</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -6001,7 +6001,7 @@
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>C2447EC6-6138-4A72-80F1-CE16ED301D6E</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6051,7 +6051,7 @@
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01CA7CF1-5754-442D-バブ-8BA6772E5C30</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6201,7 +6201,7 @@
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>A4D87397-48B6-462D-9D15-F512A65498F6</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6251,7 +6251,7 @@
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>DFE237DE-143B-416C-91D7-AA9B64704489</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6301,7 +6301,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>A8042D88-E79D-417B-93B2-2A5A67E7A8ED</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6396,7 +6396,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>DE0D5973-CD4C-4D21-A088-137F5E6C4CFD</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6446,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3E504547-C244-47EC-9613-8A7200F1CE16</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6496,7 +6496,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ED301D6E-872E-452E-9611-CC58B5A4B151</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6546,7 +6546,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1E43A58A-9C22-499C-9D7B-57D0C655562F</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6637,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>A65498F6-DFE2-437D-B143-B16C31D7AA9B</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6683,7 +6683,7 @@
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>64704489-A804-42D8-AE79-D17B73B22A5A</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6775,7 +6775,7 @@
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>E179B599-DE0D-4597-9CD4-CD21B088137F</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6825,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>5E6C4CFD-3E50-4454-9C24-47EC66138A72</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6925,7 +6925,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>E7D7E484-3276-4D8B-BC05-5BCF619E8A13</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -7075,7 +7075,7 @@
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>541ACDCE-9793-477B-ADB3-751AB2AB13AD</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7120,7 +7120,7 @@
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>A6E55D7D-8A2A-4DB1-87D6-326AF625CA44</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7165,7 +7165,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>E5695F22-23AC-4E8C-A123-08CA5017F154</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7210,7 +7210,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>D5F345BF-97AB-41A7-819C-6104BAA7D48C</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7300,7 +7300,7 @@
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945BDA4-3334-4F24-A116-34182BA52752</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7345,7 +7345,7 @@
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>6944008B-E7D7-4E48-9327-6D8BDC055BCF</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7435,7 +7435,7 @@
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>97BE9951-9048-4384-9C98-6CB2913156A1</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7480,7 +7480,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476E49F-541A-4CDC-B979-377BCDB3751A</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7525,7 +7525,7 @@
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>B2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7570,7 +7570,7 @@
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>F625CA44-E569-45F2-823A-CE8CB12308CA</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7660,7 +7660,7 @@
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017F154-E3AB-4369-9829-E7E316183687</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7705,7 +7705,7 @@
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>A0477A20-9945-4BDA-9333-4F2491163418</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7795,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>DC055BCF-619E-48A1-9F98-879525D62688</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7885,7 +7885,7 @@
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156A1-2476-4E49-B541-ACDCE979377B</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7930,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>CDB3751A-B2AB-413A-BA6E-55D7D8A2ADB1</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7975,7 +7975,7 @@
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17D6326A-F625-4CA4-9E56-95F2223ace8C</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8020,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>B12308CA-5017-4F15-9E3A-B3693829E7E3</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8065,7 +8065,7 @@
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>16183687-A047-47A2-8994-5BDA43334F24</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8200,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5C986CB2-9131-456A-8247-6E49F541ACDC</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8290,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>D8A2ADB1-17D6-4326-AF62-5CA44E5695F2</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8470,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>BE7D7E48-4327-46D8-ADC0-55BCF619E8A1</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8560,7 +8560,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5C98-46CB-8913-156A12476E49</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8605,7 +8605,7 @@
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>F541ACDC-E979-4377-ACDB-3751AB2AB13A</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8650,7 +8650,7 @@
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>DA6E55D7-D8A2-4ADB-817D-6326AF625CA4</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8695,7 +8695,7 @@
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>4E5695F2-223A-4CE8-AB12-308CA5017F15</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8785,7 +8785,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945BDA-4333-44F2-9911-634182BA5275</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8830,7 +8830,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>15833EE7-AD6C-46D3-9331-65C7ACBE44AB</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8875,7 +8875,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>E5F8D79F-2E87-4768-924C-516775C6EA95</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8920,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>B86AD884-08E3-4727-94B8-75BA18F20459</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8965,7 +8965,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365D38-E43F-49CC-AD86-8266ABCA264F</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -9010,7 +9010,7 @@
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>9A19BF39-C95D-444C-9C89-19CA1F6D5215</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9055,7 +9055,7 @@
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>AE514B93-3D45-485E-8112-9BD7BA012F7B</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9145,7 +9145,7 @@
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>2E30ABAB-5478-417C-81BF-BF1AD4ED1ED4</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9235,7 +9235,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>AF95C92D-D723-4F4A-98D7-8722324EFD4D</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9280,7 +9280,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>F00A69DE-7076-4734-A734-6E4552CAD9E1</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9370,7 +9370,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>28B9EE82-B2C7-45AA-BC98-6DE6F59A095D</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9460,7 +9460,7 @@
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048E-E5D7-4206-9C55-B5ED45D2CC0C</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9505,7 +9505,7 @@
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>A13F72F3-8F5C-4864-95E5-75BF37FBBEB1</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9685,7 +9685,7 @@
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>49A98F2B-EC22-4A87-9415-6A10B00D6555</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9775,7 +9775,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>D7DCDCB9-0D99-44B9-BAAB-AC7570EDE79A</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9820,7 +9820,7 @@
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>B9620385-1CDE-418F-914B-A84A06982FFC</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9865,7 +9865,7 @@
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>6DC36C52-0124-4FFE-9EAF-23EC1282DEDB</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9910,7 +9910,7 @@
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>388A3D0E-0A43-4367-90B2-3DD2AEECE5EE</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -10045,7 +10045,7 @@
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7F408960-C626-44CB-A018-347C8D790CDF</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="9">
+  <dataValidations count="13">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,18 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
@@ -12053,7 +12065,7 @@
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>アプリケーションの展開</t>
+          <t>Application Deployment</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>一元化された委任された責任を適用して、役割とセキュリティの要件に基づいてランディング ゾーン内にデプロイされたリソースを管理する</t>
+          <t>役割とセキュリティの要件に基づいて、ランディング ゾーン内にデプロイされたリソースを管理するための一元化された委任された責任を適用する</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -2621,23 +2621,23 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
+          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
       <c r="E39" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2648,19 +2648,15 @@
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I39" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
+      <c r="I39" s="16" t="n"/>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2671,17 +2667,17 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
+          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2698,19 +2694,15 @@
       <c r="G40" s="22" t="n"/>
       <c r="H40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I40" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="n"/>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2721,17 +2713,17 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2748,19 +2740,19 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2771,17 +2763,17 @@
     <row r="42" ht="16.5" customHeight="1" s="13">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B42" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
+          <t>ランディング ゾーンは文書化されていますか?</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2796,21 +2788,13 @@
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
-        </is>
-      </c>
-      <c r="I42" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+      <c r="H42" s="16" t="n"/>
+      <c r="I42" s="16" t="n"/>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2821,17 +2805,17 @@
     <row r="43" ht="16.5" customHeight="1" s="13">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B43" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2848,19 +2832,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2871,17 +2855,17 @@
     <row r="44" ht="16.5" customHeight="1" s="13">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B44" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2898,19 +2882,19 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2921,17 +2905,17 @@
     <row r="45" ht="16.5" customHeight="1" s="13">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B45" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
+          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,19 +2932,19 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2971,17 +2955,17 @@
     <row r="46" ht="16.5" customHeight="1" s="13">
       <c r="A46" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B46" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2998,15 +2982,19 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3017,17 +3005,17 @@
     <row r="47" ht="16.5" customHeight="1" s="13">
       <c r="A47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3044,19 +3032,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3067,17 +3055,17 @@
     <row r="48" ht="16.5" customHeight="1" s="13">
       <c r="A48" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B48" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3094,19 +3082,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3117,23 +3105,23 @@
     <row r="49" ht="16.5" customHeight="1" s="13">
       <c r="A49" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B49" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
       <c r="E49" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -3144,14 +3132,14 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3162,17 +3150,17 @@
     <row r="50" ht="16.5" customHeight="1" s="13">
       <c r="A50" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B50" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
+          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3189,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3197,7 +3185,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3208,17 +3196,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3235,19 +3223,15 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="n"/>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3258,17 +3242,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
+          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3285,19 +3269,15 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="n"/>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3308,17 +3288,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
+          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3335,19 +3315,14 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3358,17 +3333,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3385,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3393,7 +3368,7 @@
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3404,17 +3379,17 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
+          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3431,19 +3406,14 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3454,17 +3424,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
+          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3481,14 +3451,14 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3499,17 +3469,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3526,14 +3496,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3544,17 +3514,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3571,14 +3541,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3589,17 +3559,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3616,14 +3586,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3634,17 +3604,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
+          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3661,19 +3631,14 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3689,12 +3654,12 @@
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3711,14 +3676,19 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3734,12 +3704,12 @@
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3756,14 +3726,19 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3779,12 +3754,12 @@
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
+          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3801,15 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3825,12 +3804,12 @@
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3847,15 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,12 +3854,12 @@
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3893,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,12 +3904,12 @@
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3943,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,12 +3954,12 @@
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3993,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4021,12 +4004,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4043,15 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,18 +4054,18 @@
       </c>
       <c r="B69" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4089,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,12 +4104,12 @@
       </c>
       <c r="B70" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4139,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4189,19 +4176,15 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="n"/>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,12 +4200,12 @@
       </c>
       <c r="B72" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>Azure リージョン間のトラフィックを暗号化する必要がある場合は、グローバル VNet ピアリングを使用して、リージョン間で仮想ネットワークを接続します。</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4239,19 +4222,19 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,12 +4250,12 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>MACsec がオプションではない (たとえば、ExpressRoute Direct を使用しない) 仮想 WAN シナリオの場合は、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4289,19 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,18 +4300,18 @@
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4339,19 +4322,15 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
-        </is>
-      </c>
-      <c r="I74" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I74" s="16" t="n"/>
       <c r="J74" s="23" t="n"/>
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,12 +4346,12 @@
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4389,19 +4368,15 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I75" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
+      <c r="I75" s="16" t="n"/>
       <c r="J75" s="23" t="n"/>
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,18 +4392,18 @@
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4439,19 +4414,15 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
-        </is>
-      </c>
-      <c r="I76" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
+      <c r="I76" s="16" t="n"/>
       <c r="J76" s="23" t="n"/>
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,12 +4438,12 @@
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4489,19 +4460,15 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
-        </is>
-      </c>
-      <c r="I77" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
+      <c r="I77" s="16" t="n"/>
       <c r="J77" s="23" t="n"/>
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用します。Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4539,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,12 +4530,12 @@
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4589,19 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4617,12 +4580,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4639,19 +4602,15 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
-        </is>
-      </c>
-      <c r="I80" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I80" s="16" t="n"/>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,12 +4626,12 @@
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,19 +4648,15 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I81" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+        </is>
+      </c>
+      <c r="I81" s="16" t="n"/>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,12 +4672,12 @@
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
+          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4739,19 +4694,15 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
-        </is>
-      </c>
-      <c r="I82" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+        </is>
+      </c>
+      <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,12 +4718,12 @@
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,12 +4764,12 @@
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,12 +4814,12 @@
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
+          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4889,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,12 +4864,12 @@
       </c>
       <c r="B86" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4939,19 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4989,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5017,12 +4960,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,19 +4982,19 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,12 +5010,12 @@
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5089,19 +5032,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,12 +5060,12 @@
       </c>
       <c r="B90" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、Virtual WAN と通常の仮想ネットワークの両方で一般提供されました。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5139,19 +5082,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,12 +5110,12 @@
       </c>
       <c r="B91" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5189,19 +5132,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,12 +5160,12 @@
       </c>
       <c r="B92" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,19 +5182,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,12 +5210,12 @@
       </c>
       <c r="B93" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5289,19 +5232,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,12 +5260,12 @@
       </c>
       <c r="B94" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5339,19 +5282,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,12 +5310,12 @@
       </c>
       <c r="B95" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,19 +5332,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,12 +5360,12 @@
       </c>
       <c r="B96" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5439,19 +5382,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5467,12 +5410,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5489,19 +5432,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,12 +5460,12 @@
       </c>
       <c r="B98" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>内部向けアプリ (企業) と外部向けアプリ (オンライン) の両方のランディング ゾーン内でアプリ配信を実行します。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5539,19 +5482,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5589,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,12 +5560,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
+          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5639,7 +5582,7 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
@@ -5651,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,12 +5610,12 @@
       </c>
       <c r="B101" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
+          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,19 +5632,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,12 +5660,12 @@
       </c>
       <c r="B102" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5739,19 +5682,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,12 +5710,12 @@
       </c>
       <c r="B103" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5789,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,12 +5760,12 @@
       </c>
       <c r="B104" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5839,19 +5782,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,12 +5810,12 @@
       </c>
       <c r="B105" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5889,19 +5832,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5917,18 +5860,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5939,19 +5882,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5967,12 +5910,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5989,19 +5932,15 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="n"/>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6017,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6039,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,12 +6006,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6089,19 +6028,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,12 +6056,12 @@
       </c>
       <c r="B110" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>最新バージョンの NSG フロー ログで必要な詳細レベルが提供されているかどうかを評価します。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6139,19 +6078,15 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="n"/>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,12 +6102,12 @@
       </c>
       <c r="B111" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,19 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模なアプローチはお勧めしません。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,19 +6215,19 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6317,12 +6243,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、Virtual WAN と通常の仮想ネットワークの両方で一般提供されました。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6339,7 +6265,7 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
@@ -6351,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6367,12 +6293,12 @@
       </c>
       <c r="B115" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6389,14 +6315,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6412,12 +6343,12 @@
       </c>
       <c r="B116" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間のトラフィックを暗号化する必要がある場合は、グローバル VNet ピアリングを使用して、リージョン間で仮想ネットワークを接続します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6439,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6462,12 +6393,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>MACsec がオプションではない (たとえば、ExpressRoute Direct を使用しない) 仮想 WAN シナリオの場合は、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6484,19 +6415,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6512,12 +6443,12 @@
       </c>
       <c r="B118" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6534,19 +6465,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6562,12 +6493,12 @@
       </c>
       <c r="B119" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>最新バージョンの NSG フロー ログで必要な詳細レベルが提供されているかどうかを評価します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6584,14 +6515,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6607,12 +6543,12 @@
       </c>
       <c r="B120" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
+          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6629,15 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I120" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I120" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6653,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模なアプローチはお勧めしません。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6675,15 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6694,17 +6638,17 @@
     <row r="122" ht="16.5" customHeight="1" s="13">
       <c r="A122" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Azure ロールベースのアクセス制御 (Azure RBAC)、データ主権要件、またはデータ保持ポリシーによって個別のワークスペースが義務付けられている場合を除き、1 つのモニター ログ ワークスペースを使用してプラットフォームを一元的に管理します。</t>
+          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6721,19 +6665,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6744,17 +6688,17 @@
     <row r="123" ht="16.5" customHeight="1" s="13">
       <c r="A123" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B123" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーンは文書化されていますか?</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6769,13 +6713,21 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="n"/>
-      <c r="I123" s="16" t="n"/>
+      <c r="H123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I123" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6786,17 +6738,17 @@
     <row r="124" ht="16.5" customHeight="1" s="13">
       <c r="A124" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B124" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>ログの保有要件が 2 年を超える場合は、ログを Azure Storage にエクスポートします。ライトワンス、リードメニーポリシーで不変ストレージを使用して、ユーザーが指定した間隔でデータを消去および変更できないようにします。</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6813,19 +6765,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6836,17 +6788,17 @@
     <row r="125" ht="16.5" customHeight="1" s="13">
       <c r="A125" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B125" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
+          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6863,19 +6815,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6886,17 +6838,17 @@
     <row r="126" ht="16.5" customHeight="1" s="13">
       <c r="A126" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B126" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、ゲスト内仮想マシン (VM) の構成ドリフトを監視します。ポリシーを使用してゲスト構成監査機能を有効にすると、アプリケーション チームのワークロードは、わずかな労力で機能機能をすぐに使用できます。</t>
+          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6913,19 +6865,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6936,17 +6888,17 @@
     <row r="127" ht="16.5" customHeight="1" s="13">
       <c r="A127" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B127" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Azure Automation の更新管理は、Windows VM と Linux VM の両方の長期的な修正プログラム適用メカニズムとして使用します。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6963,19 +6915,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6986,17 +6938,17 @@
     <row r="128" ht="16.5" customHeight="1" s="13">
       <c r="A128" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B128" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャーを使用してトラフィック フローをプロアクティブに監視する</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7013,19 +6965,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7036,17 +6988,17 @@
     <row r="129" ht="16.5" customHeight="1" s="13">
       <c r="A129" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>リソース ロックを使用して、重要な共有サービスが誤って削除されないようにします。</t>
+          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7063,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7086,23 +7038,23 @@
     <row r="130" ht="16.5" customHeight="1" s="13">
       <c r="A130" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>拒否ポリシーを使用して、Azure ロールの割り当てを補完します。拒否ポリシーと Azure ロールの割り当てを組み合わせることで、リソースをデプロイおよび構成できるユーザーと、デプロイおよび構成できるリソースを適用するための適切なガードレールが確実に配置されます。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7113,14 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7131,17 +7088,17 @@
     <row r="131" ht="16.5" customHeight="1" s="13">
       <c r="A131" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B131" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>サービスとリソースの正常性イベントを、プラットフォーム監視ソリューション全体の一部として含めます。プラットフォームの観点からサービスとリソースの正常性を追跡することは、Azure のリソース管理の重要な要素です。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7158,14 +7115,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7176,17 +7138,17 @@
     <row r="132" ht="16.5" customHeight="1" s="13">
       <c r="A132" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B132" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>アラートとアクション グループを Azure Service Health プラットフォームの一部として含めて、アラートまたは問題に対処できるようにする</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7203,14 +7165,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7221,17 +7188,17 @@
     <row r="133" ht="16.5" customHeight="1" s="13">
       <c r="A133" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B133" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>生のログ エントリをオンプレミスの監視システムに送り返さないでください。代わりに、Azure で生まれたデータは Azure にとどまるという原則を採用します。オンプレミスの SIEM 統合が必要な場合は、ログではなく重要なアラートを送信します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7248,14 +7215,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7266,17 +7238,17 @@
     <row r="134" ht="16.5" customHeight="1" s="13">
       <c r="A134" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B134" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>一元化された Azure Monitor ログ分析ワークスペースを使用して、IaaS および PaaS アプリケーション リソースからログとメトリックを収集し、Azure RBAC を使用してログ アクセスを制御します。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7293,14 +7265,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7311,17 +7288,17 @@
     <row r="135" ht="16.5" customHeight="1" s="13">
       <c r="A135" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B135" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>分析情報とレポートには Azure Monitor ログを使用します。</t>
+          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7338,14 +7315,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7356,17 +7338,17 @@
     <row r="136" ht="16.5" customHeight="1" s="13">
       <c r="A136" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure 診断拡張機能ログ ストレージのランディング ゾーン内の共有ストレージ アカウントを使用します。</t>
+          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7383,14 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7401,17 +7388,17 @@
     <row r="137" ht="16.5" customHeight="1" s="13">
       <c r="A137" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>運用アラートの生成には、Azure Monitor アラートを使用します。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7428,14 +7415,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7446,17 +7438,17 @@
     <row r="138" ht="16.5" customHeight="1" s="13">
       <c r="A138" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B138" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure 間の仮想マシンのディザスター リカバリー シナリオには、Azure Site Recovery を使用します。これにより、リージョン間でワークロードをレプリケートできます。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7473,14 +7465,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7491,17 +7483,17 @@
     <row r="139" ht="16.5" customHeight="1" s="13">
       <c r="A139" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B139" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>ネイティブの PaaS サービスのディザスター リカバリー機能を使用してテストしてください。</t>
+          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7518,14 +7510,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7536,17 +7528,17 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Azure ネイティブのバックアップ機能を使用します。パートナー/顧客が Azure Backup と、バックアップ管理を大幅に簡素化できるすべての新機能を認識していることを確認します。</t>
+          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7563,14 +7555,19 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7581,17 +7578,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>監視要件が評価され、適切なデータ収集とアラートの構成が適用されていることを確認します</t>
+          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7608,14 +7605,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>859c3900-4514-41eb-b010-475d695abd74</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7626,23 +7628,23 @@
     <row r="142" ht="16.5" customHeight="1" s="13">
       <c r="A142" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B142" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7653,14 +7655,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7671,17 +7678,17 @@
     <row r="143" ht="16.5" customHeight="1" s="13">
       <c r="A143" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B143" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7698,14 +7705,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7716,17 +7723,17 @@
     <row r="144" ht="16.5" customHeight="1" s="13">
       <c r="A144" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B144" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7743,14 +7750,19 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7761,17 +7773,17 @@
     <row r="145" ht="16.5" customHeight="1" s="13">
       <c r="A145" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B145" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7788,14 +7800,14 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7806,17 +7818,17 @@
     <row r="146" ht="16.5" customHeight="1" s="13">
       <c r="A146" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B146" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7833,14 +7845,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7851,17 +7863,17 @@
     <row r="147" ht="16.5" customHeight="1" s="13">
       <c r="A147" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B147" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7878,14 +7890,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7896,17 +7908,17 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7923,14 +7935,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7941,23 +7953,23 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7968,14 +7980,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7986,17 +7998,17 @@
     <row r="150" ht="16.5" customHeight="1" s="13">
       <c r="A150" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B150" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8013,14 +8025,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8031,17 +8043,17 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8058,14 +8070,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8081,18 +8093,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8103,14 +8115,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8126,12 +8138,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8148,14 +8160,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8171,12 +8183,12 @@
       </c>
       <c r="B154" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8193,14 +8205,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8216,18 +8228,18 @@
       </c>
       <c r="B155" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
       <c r="E155" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8238,14 +8250,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8261,18 +8273,18 @@
       </c>
       <c r="B156" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
       <c r="E156" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8283,14 +8295,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8306,18 +8318,18 @@
       </c>
       <c r="B157" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8328,14 +8340,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8351,18 +8363,18 @@
       </c>
       <c r="B158" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8373,14 +8385,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8396,18 +8408,18 @@
       </c>
       <c r="B159" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8418,14 +8430,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8441,12 +8453,12 @@
       </c>
       <c r="B160" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8463,14 +8475,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8486,12 +8498,12 @@
       </c>
       <c r="B161" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8508,14 +8520,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8531,18 +8543,18 @@
       </c>
       <c r="B162" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8553,14 +8565,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8576,12 +8588,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8598,14 +8610,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8626,13 +8638,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8643,14 +8655,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8666,12 +8678,12 @@
       </c>
       <c r="B165" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8688,14 +8700,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8711,12 +8723,12 @@
       </c>
       <c r="B166" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8733,14 +8745,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8756,12 +8768,12 @@
       </c>
       <c r="B167" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8778,14 +8790,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8801,12 +8813,12 @@
       </c>
       <c r="B168" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8823,14 +8835,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8846,18 +8858,18 @@
       </c>
       <c r="B169" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8868,14 +8880,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8891,12 +8903,12 @@
       </c>
       <c r="B170" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8913,14 +8925,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8936,12 +8948,12 @@
       </c>
       <c r="B171" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8958,14 +8970,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8981,12 +8993,12 @@
       </c>
       <c r="B172" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9003,14 +9015,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9026,12 +9038,12 @@
       </c>
       <c r="B173" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9048,14 +9060,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9066,23 +9078,23 @@
     <row r="174" ht="16.5" customHeight="1" s="13">
       <c r="A174" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9093,14 +9105,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9116,12 +9128,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9138,14 +9150,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9161,12 +9173,12 @@
       </c>
       <c r="B176" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9183,14 +9195,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9201,23 +9213,23 @@
     <row r="177" ht="16.5" customHeight="1" s="13">
       <c r="A177" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B177" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
       <c r="E177" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -9228,14 +9240,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9246,17 +9258,17 @@
     <row r="178" ht="16.5" customHeight="1" s="13">
       <c r="A178" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B178" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9273,14 +9285,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9291,17 +9303,17 @@
     <row r="179" ht="16.5" customHeight="1" s="13">
       <c r="A179" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B179" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9318,14 +9330,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9341,18 +9353,18 @@
       </c>
       <c r="B180" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
       <c r="E180" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
@@ -9363,14 +9375,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9381,23 +9393,23 @@
     <row r="181" ht="16.5" customHeight="1" s="13">
       <c r="A181" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B181" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
       <c r="E181" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -9408,14 +9420,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9426,17 +9438,17 @@
     <row r="182" ht="16.5" customHeight="1" s="13">
       <c r="A182" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B182" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9453,14 +9465,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9471,23 +9483,23 @@
     <row r="183" ht="16.5" customHeight="1" s="13">
       <c r="A183" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B183" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用します。Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
       <c r="E183" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -9498,14 +9510,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9521,18 +9533,18 @@
       </c>
       <c r="B184" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
       <c r="E184" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -9543,14 +9555,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9566,18 +9578,18 @@
       </c>
       <c r="B185" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
       <c r="E185" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -9588,14 +9600,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9606,17 +9618,17 @@
     <row r="186" ht="16.5" customHeight="1" s="13">
       <c r="A186" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9633,14 +9645,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9656,18 +9668,18 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
       <c r="E187" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -9678,14 +9690,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9701,18 +9713,18 @@
       </c>
       <c r="B188" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
       <c r="E188" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -9723,14 +9735,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9746,12 +9758,12 @@
       </c>
       <c r="B189" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9768,14 +9780,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9791,12 +9803,12 @@
       </c>
       <c r="B190" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9813,14 +9825,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9836,12 +9848,12 @@
       </c>
       <c r="B191" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9858,14 +9870,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9881,18 +9893,18 @@
       </c>
       <c r="B192" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
       <c r="E192" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -9903,14 +9915,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9926,12 +9938,12 @@
       </c>
       <c r="B193" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9948,14 +9960,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9966,23 +9978,23 @@
     <row r="194" ht="16.5" customHeight="1" s="13">
       <c r="A194" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B194" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>診断設定を追加して、Azure Front Door WAF のログを保存します。ログを定期的に確認して、攻撃や誤検知がないか確認してください。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
       <c r="E194" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -9993,14 +10005,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10011,17 +10023,17 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door のログを Microsoft Sentinel に送信します。攻撃を検出し、フロント ドア テレメトリを Azure 環境全体に統合します。</t>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
@@ -10038,14 +10050,14 @@
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -4205,7 +4205,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間のトラフィックを暗号化する必要がある場合は、グローバル VNet ピアリングを使用して、リージョン間で仮想ネットワークを接続します。</t>
+          <t>MACsec がオプションではない (たとえば、ExpressRoute Direct を使用しない) 仮想 WAN シナリオの場合は、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,7 +4222,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4234,7 +4234,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>MACsec がオプションではない (たとえば、ExpressRoute Direct を使用しない) 仮想 WAN シナリオの場合は、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,19 +4272,15 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="n"/>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4305,13 +4301,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4322,7 +4318,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4330,7 +4326,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4351,13 +4347,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4368,7 +4364,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4376,7 +4372,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4397,13 +4393,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4414,7 +4410,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4422,7 +4418,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4443,13 +4439,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用します。Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4460,7 +4456,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4468,7 +4464,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4484,18 +4480,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用します。Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4506,15 +4502,19 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,19 +4552,15 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="n"/>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4585,7 +4581,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4602,7 +4598,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4610,7 +4606,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4631,7 +4627,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4648,7 +4644,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4656,7 +4652,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4677,7 +4673,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
+          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4694,7 +4690,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4702,7 +4698,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4723,7 +4719,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4740,15 +4736,19 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
+          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,19 +4886,15 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="n"/>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4914,12 +4910,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4936,15 +4932,19 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -4982,7 +4982,7 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I88" s="16" t="inlineStr">
@@ -4994,7 +4994,7 @@
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5015,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5044,7 +5044,7 @@
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,7 +5082,7 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
@@ -5144,7 +5144,7 @@
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,7 +5182,7 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
@@ -5194,7 +5194,7 @@
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5215,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,7 +5232,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5244,7 +5244,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,7 +5282,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5294,7 +5294,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,7 +5332,7 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
@@ -5344,7 +5344,7 @@
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,7 +5382,7 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
@@ -5394,7 +5394,7 @@
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5415,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,7 +5432,7 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
@@ -5444,7 +5444,7 @@
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5465,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,7 +5482,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5494,7 +5494,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5510,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
+          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5532,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
+          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5594,7 +5594,7 @@
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5644,7 +5644,7 @@
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5665,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5694,7 +5694,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5732,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,7 +5782,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5794,7 +5794,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5844,7 +5844,7 @@
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5885,16 +5885,12 @@
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
-      <c r="I106" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+      <c r="I106" s="16" t="n"/>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5915,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5932,15 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I107" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I107" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>最新バージョンの NSG フロー ログで必要な詳細レベルが提供されているかどうかを評価します。</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,19 +6028,15 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="n"/>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6061,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>最新バージョンの NSG フロー ログで必要な詳細レベルが提供されているかどうかを評価します。</t>
+          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6078,7 +6074,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I110" s="16" t="n"/>
@@ -6086,7 +6082,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6107,7 +6103,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
+          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模なアプローチはお勧めしません。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6124,14 +6120,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6147,12 +6143,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模なアプローチはお勧めしません。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6169,15 +6165,19 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6198,7 +6198,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、Virtual WAN と通常の仮想ネットワークの両方で一般提供されました。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,7 +6215,7 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I113" s="16" t="inlineStr">
@@ -6227,7 +6227,7 @@
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、Virtual WAN と通常の仮想ネットワークの両方で一般提供されました。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6277,7 +6277,7 @@
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6327,7 +6327,7 @@
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6348,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6370,14 +6370,14 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,7 +6415,7 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -6427,7 +6427,7 @@
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,7 +6465,7 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
@@ -6477,7 +6477,7 @@
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6520,14 +6520,14 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6565,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6593,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6615,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6670,14 +6670,14 @@
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6715,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6770,14 +6770,14 @@
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6820,14 +6820,14 @@
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6848,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6877,7 +6877,7 @@
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6927,7 +6927,7 @@
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6977,7 +6977,7 @@
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6993,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7015,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7048,7 +7048,7 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7065,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7098,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,7 +7115,7 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
@@ -7127,7 +7127,7 @@
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,7 +7165,7 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -7177,7 +7177,7 @@
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7220,14 +7220,14 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7248,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7270,14 +7270,14 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7298,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7320,14 +7320,14 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7343,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7365,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7398,7 +7398,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,19 +7415,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
-        </is>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7448,7 +7443,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7472,7 +7467,7 @@
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7493,7 +7488,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
+          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7511,13 +7506,18 @@
       <c r="H139" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7538,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7560,14 +7560,14 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
+          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7617,7 +7617,7 @@
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7656,18 +7656,13 @@
       <c r="H142" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7688,7 +7683,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7706,13 +7701,18 @@
       <c r="H143" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7733,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
+          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7751,18 +7751,13 @@
       <c r="H144" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7783,7 +7778,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
+          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7807,7 +7802,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7828,7 +7823,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7845,14 +7840,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7873,7 +7868,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7890,14 +7885,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7908,23 +7903,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7935,14 +7930,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7963,13 +7958,13 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
       <c r="E149" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -7980,14 +7975,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8008,7 +8003,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8025,14 +8020,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8043,7 +8038,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8053,13 +8048,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8070,14 +8065,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8098,13 +8093,13 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8115,14 +8110,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8143,13 +8138,13 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
       <c r="E153" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8160,14 +8155,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8188,7 +8183,7 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
@@ -8205,14 +8200,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8233,7 +8228,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8250,14 +8245,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8278,7 +8273,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8295,14 +8290,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8323,7 +8318,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8340,14 +8335,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8368,13 +8363,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8385,14 +8380,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8413,7 +8408,7 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
@@ -8430,14 +8425,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8458,7 +8453,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8475,14 +8470,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8503,13 +8498,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8520,14 +8515,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8548,13 +8543,13 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
       <c r="E162" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8565,14 +8560,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8588,18 +8583,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8610,14 +8605,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8638,13 +8633,13 @@
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
       <c r="E164" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8655,14 +8650,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8683,7 +8678,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8700,14 +8695,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8728,7 +8723,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8752,7 +8747,7 @@
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8773,7 +8768,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8797,7 +8792,7 @@
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8818,13 +8813,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8842,7 +8837,7 @@
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8863,13 +8858,13 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
       <c r="E169" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -8887,7 +8882,7 @@
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8908,7 +8903,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8932,7 +8927,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8953,7 +8948,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8977,7 +8972,7 @@
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8998,7 +8993,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9015,14 +9010,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9043,7 +9038,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9060,14 +9055,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9083,18 +9078,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9105,14 +9100,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9133,13 +9128,13 @@
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
       <c r="E175" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9150,14 +9145,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9178,7 +9173,7 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
@@ -9195,14 +9190,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9223,7 +9218,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9247,7 +9242,7 @@
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9268,7 +9263,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9292,7 +9287,7 @@
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9313,7 +9308,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9337,7 +9332,7 @@
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9358,7 +9353,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9382,7 +9377,7 @@
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9403,7 +9398,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9420,14 +9415,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9448,7 +9443,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9465,14 +9460,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9493,7 +9488,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9510,14 +9505,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9538,7 +9533,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9555,14 +9550,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9583,7 +9578,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9607,7 +9602,7 @@
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9623,12 +9618,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9645,14 +9640,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9673,7 +9668,7 @@
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9690,14 +9685,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9718,7 +9713,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9735,14 +9730,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9763,7 +9758,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9787,7 +9782,7 @@
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9808,7 +9803,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9825,14 +9820,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9853,7 +9848,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9870,14 +9865,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9898,7 +9893,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9915,14 +9910,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9943,7 +9938,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9960,14 +9955,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9988,7 +9983,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10012,7 +10007,7 @@
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10023,41 +10018,41 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>Front Door</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
       <c r="E195" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>未確認</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -11617,7 +11612,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11701,7 +11696,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -11758,43 +11753,43 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="13">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -1122,12 +1122,12 @@
       <c r="G8" s="22" t="n"/>
       <c r="H8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-emergency-access</t>
         </is>
       </c>
       <c r="I8" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J8" s="23" t="n"/>
@@ -1172,12 +1172,12 @@
       <c r="G9" s="22" t="n"/>
       <c r="H9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1222,12 +1222,12 @@
       <c r="G10" s="22" t="n"/>
       <c r="H10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/conditional-access/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory/conditional-access/overview</t>
         </is>
       </c>
       <c r="I10" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+          <t>https://learn.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
         </is>
       </c>
       <c r="J10" s="23" t="n"/>
@@ -1272,12 +1272,12 @@
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
+          <t>https://learn.microsoft.com/azure/active-directory/authentication/concept-mfa-howitworks</t>
         </is>
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://learn.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1322,12 +1322,12 @@
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/role-based-access-control/overview</t>
+          <t>https://learn.microsoft.com/azure/role-based-access-control/overview</t>
         </is>
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1372,12 +1372,12 @@
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
+          <t>https://learn.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J13" s="23" t="n"/>
@@ -1422,12 +1422,12 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
+          <t>https://learn.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J14" s="23" t="n"/>
@@ -1472,12 +1472,12 @@
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
+          <t>https://learn.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
+          <t>https://learn.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1522,12 +1522,12 @@
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access#prerequisites-for-a-landing-zone---design-recommendations</t>
         </is>
       </c>
       <c r="I16" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
+          <t>https://learn.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J16" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1622,12 +1622,12 @@
       <c r="G18" s="22" t="n"/>
       <c r="H18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I18" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-active-directory/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-active-directory/</t>
         </is>
       </c>
       <c r="J18" s="23" t="n"/>
@@ -1672,12 +1672,12 @@
       <c r="G19" s="22" t="n"/>
       <c r="H19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/overview</t>
+          <t>https://learn.microsoft.com/azure/active-directory-domain-services/overview</t>
         </is>
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://learn.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1722,12 +1722,12 @@
       <c r="G20" s="22" t="n"/>
       <c r="H20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1772,12 +1772,12 @@
       <c r="G21" s="22" t="n"/>
       <c r="H21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy</t>
         </is>
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -1822,12 +1822,12 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
+          <t>https://learn.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
@@ -1872,12 +1872,12 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
@@ -1922,12 +1922,12 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
@@ -1972,12 +1972,12 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
@@ -2022,12 +2022,12 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
@@ -2072,12 +2072,12 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2122,7 +2122,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -2167,7 +2167,7 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
@@ -2212,7 +2212,7 @@
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
@@ -2257,7 +2257,7 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
@@ -2302,7 +2302,7 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I32" s="16" t="n"/>
@@ -2348,12 +2348,12 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
@@ -2398,12 +2398,12 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://learn.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://learn.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
@@ -2498,12 +2498,12 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://learn.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
+          <t>https://learn.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
@@ -2548,12 +2548,12 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://learn.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
@@ -2598,12 +2598,12 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
@@ -2740,12 +2740,12 @@
       <c r="G41" s="22" t="n"/>
       <c r="H41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
@@ -2832,12 +2832,12 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
@@ -2882,12 +2882,12 @@
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
@@ -2932,12 +2932,12 @@
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
@@ -2982,12 +2982,12 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://learn.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J46" s="23" t="n"/>
@@ -3032,12 +3032,12 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
@@ -3082,12 +3082,12 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
@@ -3132,7 +3132,7 @@
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
@@ -3177,7 +3177,7 @@
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://learn.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3223,7 +3223,7 @@
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="I51" s="16" t="n"/>
@@ -3269,7 +3269,7 @@
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://learn.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="I52" s="16" t="n"/>
@@ -3315,7 +3315,7 @@
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
@@ -3360,7 +3360,7 @@
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="I54" s="16" t="n"/>
@@ -3406,7 +3406,7 @@
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
@@ -3451,7 +3451,7 @@
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
@@ -3496,7 +3496,7 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
@@ -3541,7 +3541,7 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
@@ -3586,7 +3586,7 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://learn.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
@@ -3631,7 +3631,7 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
+          <t>https://learn.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
@@ -3676,12 +3676,12 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
@@ -3709,7 +3709,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイで WAF 保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3726,12 +3726,12 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/application-gateway-waf-faq</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
@@ -3759,7 +3759,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
+          <t>アプリケーション ゲートウェイ v2 SKU を使用していることを確認する</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3776,19 +3776,19 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/application-gateway/overview-v2</t>
         </is>
       </c>
       <c r="I63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>553585a6-abe0-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3809,7 +3809,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
+          <t>HTTP/S アプリのセキュリティにアプリケーション ゲートウェイ v2 を使用できない場合は、パートナー NVA を使用します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3826,19 +3826,19 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内の受信 HTTP/S 接続に使用される Azure アプリケーション ゲートウェイ v2 またはパートナー NVA を、セキュリティで保護されているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3876,19 +3876,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
+          <t>アプリケーション ランディング ゾーン内のすべてのパブリック IP アドレスに対して DDoS ネットワークまたは IP 保護プランを使用します。</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3926,19 +3926,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
+          <t>Azure Front Door with WAF ポリシーを使用して、Azure リージョンにまたがるグローバル HTTP/S アプリを配信し、保護します。</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3976,19 +3976,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
+          <t>Front Door とアプリケーション ゲートウェイを使用して HTTP/S アプリを保護する場合は、Front Door で WAF ポリシーを使用します。アプリケーション ゲートウェイをロックダウンして、Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4026,19 +4026,19 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4059,13 +4059,13 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
+          <t>トラフィック マネージャーを使用して、HTTP/S 以外のプロトコルにまたがるグローバル アプリを配信します。</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
       <c r="E69" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4076,19 +4076,19 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J69" s="23" t="n"/>
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4109,13 +4109,13 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
+          <t>ユーザーが内部アプリケーションにのみアクセスする必要がある場合、Azure AD アプリケーション プロキシは Azure 仮想デスクトップ (AVD) の代替と見なされていますか?</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
       <c r="E70" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4126,19 +4126,19 @@
       <c r="G70" s="22" t="n"/>
       <c r="H70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I70" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J70" s="23" t="n"/>
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4154,12 +4154,12 @@
       </c>
       <c r="B71" s="22" t="inlineStr">
         <is>
-          <t>暗号化</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
+          <t>ネットワーク内の着信接続用に開かれるファイアウォール ポートの数を減らすには、Azure AD アプリケーション プロキシを使用して、リモート ユーザーに内部アプリケーションへのセキュリティで保護された認証されたアクセスを提供することを検討してください。</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4176,15 +4176,19 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+        </is>
+      </c>
+      <c r="I71" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+        </is>
+      </c>
       <c r="J71" s="23" t="n"/>
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4205,7 +4209,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>MACsec がオプションではない (たとえば、ExpressRoute Direct を使用しない) 仮想 WAN シナリオの場合は、仮想 WAN VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
+          <t>ExpressRoute Direct を使用している場合は、組織のルーターと MSEE の間のレイヤー 2 レベルでトラフィックを暗号化するために MACsec を構成します。この図は、この暗号化をフローで示しています。</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4222,19 +4226,15 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
-        </is>
-      </c>
-      <c r="I72" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I72" s="16" t="n"/>
       <c r="J72" s="23" t="n"/>
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4250,18 +4250,18 @@
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>暗号化</t>
         </is>
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
+          <t>MACsec がオプションではないシナリオ (たとえば、ExpressRoute Direct を使用しないシナリオ) の場合は、VPN ゲートウェイを使用して、ExpressRoute プライベート ピアリング経由で IPsec トンネルを確立します。</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
       <c r="E73" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4272,15 +4272,19 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
-        </is>
-      </c>
-      <c r="I73" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+        </is>
+      </c>
+      <c r="I73" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J73" s="23" t="n"/>
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4301,13 +4305,13 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
+          <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4318,7 +4322,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4326,7 +4330,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4347,13 +4351,13 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
+          <t>Azure Front Door と配信元で同じドメイン名を使用します。ホスト名が一致しないと、微妙なバグが発生する可能性があります。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
       <c r="E75" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4364,7 +4368,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4372,7 +4376,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4393,13 +4397,13 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
+          <t>Azure Front Door 配信元グループに配信元が 1 つしかない場合は、正常性プローブを無効にします。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
       <c r="E76" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4410,7 +4414,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4418,7 +4422,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4439,13 +4443,13 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HEAD 正常性プローブを使用します。Front Door がアプリケーションに送信するトラフィックを減らします。</t>
+          <t>Azure Front Door の適切な正常性プローブ エンドポイントを選択します。アプリケーションのすべての依存関係をチェックする正常性エンドポイントを構築することを検討してください。</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
       <c r="E77" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4456,7 +4460,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4464,7 +4468,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4480,18 +4484,18 @@
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
+          <t>Azure Front Door で HEAD 正常性プローブを使用します。Front Door がアプリケーションに送信するトラフィックを減らします。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
       <c r="E78" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4502,19 +4506,15 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I78" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
+      <c r="I78" s="16" t="n"/>
       <c r="J78" s="23" t="n"/>
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4535,7 +4535,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
+          <t>次のシナリオでは、従来のハブアンドスポーク ネットワーク トポロジに基づくネットワーク設計を検討してください。ネットワーク アーキテクチャは複数の Azure リージョンにまたがっており、リージョン間のランディング ゾーンの仮想ネットワーク間の推移的な接続は必要ありません。Azure リージョン間で仮想ネットワークを接続するために使用されるグローバル VNet ピアリングを使用して、複数の Azure リージョンにまたがるネットワーク アーキテクチャ。VPN と ExpressRoute 接続の間の推移的な接続を必要としないネットワーク アーキテクチャ。実施されている主なハイブリッド接続方法は ExpressRoute であり、VPN 接続の数は VPN ゲートウェイあたり 30 未満です。一元化された NVA と詳細なルーティングに依存しています。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4552,15 +4552,19 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
-        </is>
-      </c>
-      <c r="I79" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I79" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J79" s="23" t="n"/>
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4581,7 +4585,7 @@
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
+          <t>ExpressRoute ゲートウェイ、VPN ゲートウェイ、Azure ファイアウォールなどの共有サービス、または中央ハブ仮想ネットワーク内のパートナー NVA があることを確認します。必要に応じて、Active Directory ドメイン コントローラーと DNS サーバーも展開します。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4598,7 +4602,7 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4606,7 +4610,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4627,7 +4631,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
+          <t>パートナーのネットワーク テクノロジまたは NVA をデプロイする場合は、パートナー ベンダーのガイダンスに従ってください</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4644,7 +4648,7 @@
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4652,7 +4656,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4673,7 +4677,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
+          <t>Azure アプリケーション ゲートウェイなどの受信 L7 サービスを、中央ハブ仮想ネットワークの共有サービスとしてデプロイしないでください。代わりに、それぞれのランディング ゾーンにアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4690,7 +4694,7 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I82" s="16" t="n"/>
@@ -4698,7 +4702,7 @@
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4719,7 +4723,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
+          <t>ExpressRoute ゲートウェイと VPN ゲートウェイ間のトランジットが必要な場合は、Azure Route Server を使用します。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4736,19 +4740,15 @@
       <c r="G83" s="22" t="n"/>
       <c r="H83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I83" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4769,7 +4769,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
+          <t>Azure リージョン間で複数のハブ アンド スポーク トポロジを持つネットワーク アーキテクチャの場合、少数のランディング ゾーンがリージョン間で通信する必要がある場合は、グローバル仮想ネットワーク ピアリングを使用してランディング ゾーン仮想ネットワークを接続します。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4786,19 +4786,19 @@
       <c r="G84" s="22" t="n"/>
       <c r="H84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4819,7 +4819,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
+          <t>ハブ アンド スポーク ネットワーク アーキテクチャを 2 つの Azure リージョンにデプロイし、リージョン間のすべてのランディング ゾーン間のトランジット接続が必要な場合は、デュアル回線で ExpressRoute を使用して、Azure リージョン間のランディング ゾーン仮想ネットワークにトランジット接続を提供します。</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4836,19 +4836,19 @@
       <c r="G85" s="22" t="n"/>
       <c r="H85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I85" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
+          <t>Azure モニターを使用して、Azure 上のネットワークのエンド ツー エンドの状態を監視します。</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4886,15 +4886,19 @@
       <c r="G86" s="22" t="n"/>
       <c r="H86" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I86" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I86" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J86" s="23" t="n"/>
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4910,12 +4914,12 @@
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
+          <t>スポーク仮想ネットワークを中央ハブ仮想ネットワークに接続する場合は、VNet ピアリングの制限と、ExpressRoute 経由でアドバタイズできるプレフィックスの最大数を考慮してください。</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4932,19 +4936,15 @@
       <c r="G87" s="22" t="n"/>
       <c r="H87" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I87" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="n"/>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4960,18 +4960,18 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>ハブ アンド スポーク</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
+          <t>VNet ピアリングを構成するときに [リモート仮想ネットワークへのトラフィックを許可する] 設定を使用する</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
       <c r="E88" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4982,19 +4982,15 @@
       <c r="G88" s="22" t="n"/>
       <c r="H88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
-        </is>
-      </c>
-      <c r="I88" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-manage-peering</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="n"/>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>c76cb5a2-abe2-11ed-afa1-0242ac120002</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5015,7 +5011,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
+          <t>Azure へのプライマリ接続として ExpressRoute を使用する可能性を調査したことを確認します。</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5032,19 +5028,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5065,7 +5061,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
+          <t>複数の ExpressRoute 回線または複数のオンプレミスの場所を使用する場合、特定のパスが優先される場合は、BGP 属性を使用してルーティングを最適化してください。</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5082,19 +5078,19 @@
       <c r="G90" s="22" t="n"/>
       <c r="H90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5115,7 +5111,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
+          <t>帯域幅とパフォーマンスの要件に基づいて、ExpressRoute/VPN ゲートウェイに適切な SKU を使用していることを確認します。</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5132,19 +5128,19 @@
       <c r="G91" s="22" t="n"/>
       <c r="H91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5165,7 +5161,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
+          <t>サポートされている Azure リージョンにゾーン冗長 ExpressRoute ゲートウェイをデプロイします。</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5182,19 +5178,19 @@
       <c r="G92" s="22" t="n"/>
       <c r="H92" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5215,7 +5211,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
+          <t>10 Gbps を超える帯域幅または専用の 10/100 Gbps ポートを必要とするシナリオでは、ExpressRoute ダイレクトを使用します。</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5232,19 +5228,19 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J93" s="23" t="n"/>
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5265,7 +5261,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
+          <t>低待機時間が必要な場合、またはオンプレミスから Azure へのスループットを 10 Gbps より大きくする必要がある場合は、FastPath を有効にして、データ パスから ExpressRoute ゲートウェイをバイパスします。</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5282,19 +5278,19 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J94" s="23" t="n"/>
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5315,7 +5311,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
+          <t>VPN ゲートウェイを使用して、ブランチまたはリモートの場所を Azure に接続します。回復性を高めるには、ゾーン冗長ゲートウェイ (使用可能な場合) を展開します。</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5332,19 +5328,19 @@
       <c r="G95" s="22" t="n"/>
       <c r="H95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5365,7 +5361,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
+          <t>ExpressRoute グローバル リーチを使用して、ExpressRoute 経由で Azure に接続されている大規模なオフィス、地域本社、またはデータセンターを接続します。</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5382,19 +5378,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://learn.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5415,7 +5411,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
+          <t>運用環境と非運用環境の分離など、トラフィックの分離または専用の帯域幅が必要な場合は、異なる ExpressRoute 回線を使用します。これは、分離されたルーティングドメインを確保し、ノイズの多い隣人のリスクを軽減するのに役立ちます。</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5432,19 +5428,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://learn.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5465,7 +5461,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
+          <t>組み込みの Azure Monitor メトリックを使用して、ExpressRoute の可用性と使用率を監視します。</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5482,19 +5478,19 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://learn.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J98" s="23" t="n"/>
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5510,12 +5506,12 @@
       </c>
       <c r="B99" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
+          <t>接続モニターを使用して、環境全体の接続を監視します。</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5532,19 +5528,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5560,12 +5556,12 @@
       </c>
       <c r="B100" s="22" t="inlineStr">
         <is>
-          <t>知財プラン</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
+          <t>1 つのピアリングの場所から ExpressRoute 回線を明示的に使用しないでください。これを行うと、単一障害点が作成され、組織はピアリングの場所の停止の影響を受けやすくなります。</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5582,19 +5578,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5615,7 +5611,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
+          <t>Azure リージョンとオンプレミスの場所で IP アドレス空間が重複しないようにする</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5632,19 +5628,19 @@
       <c r="G101" s="22" t="n"/>
       <c r="H101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5665,7 +5661,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
+          <t>プライベート インターネットのアドレス割り当て (RFC 1918) の IP アドレスを使用してください。</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5682,19 +5678,19 @@
       <c r="G102" s="22" t="n"/>
       <c r="H102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I102" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J102" s="23" t="n"/>
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5715,7 +5711,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
+          <t>IP アドレス空間が無駄にならないようにし、不必要に大きな仮想ネットワーク (/16 など) を作成しない</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5732,19 +5728,19 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J103" s="23" t="n"/>
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5765,7 +5761,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
+          <t>VNET のパブリック IP アドレス範囲 (CIDR ブロック) がないことを確認する (特に、組織によって所有されていない場合)</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5782,19 +5778,19 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J104" s="23" t="n"/>
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5815,7 +5811,7 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
@@ -5832,19 +5828,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5865,7 +5861,7 @@
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
+          <t>Azure での名前解決が必要なだけの場合は、解決に Azure プライベート DNS を使用します。名前解決用の委任ゾーン ("azure.contoso.com" など) を作成します。</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
@@ -5882,15 +5878,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
-        </is>
-      </c>
-      <c r="I106" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I106" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5911,7 +5911,7 @@
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
+          <t>Azure とオンプレミスでの名前解決が必要な環境では、少なくとも 2 つの仮想マシン (VM) にデプロイされた既存の DNS インフラストラクチャ (Active Directory 統合 DNS など) を使用します。これらの DNS サーバーを使用するように仮想ネットワークの DNS 設定を構成します。</t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5928,19 +5928,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5956,12 +5956,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
+          <t>独自の DNS を必要とし、デプロイする特別なワークロード (Red Hat OpenShift など) では、好みの DNS ソリューションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5978,19 +5978,15 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
-        </is>
-      </c>
-      <c r="I108" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I108" s="16" t="n"/>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6006,12 +6002,12 @@
       </c>
       <c r="B109" s="22" t="inlineStr">
         <is>
-          <t>検査</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>最新バージョンの NSG フロー ログで必要な詳細レベルが提供されているかどうかを評価します。</t>
+          <t>Azure DNS の自動登録を有効にして、仮想ネットワーク内にデプロイされた仮想マシンの DNS レコードのライフサイクルを自動的に管理します。</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6028,15 +6024,19 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I109" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/dns/private-dns-autoregistration</t>
+        </is>
+      </c>
+      <c r="I109" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
+        </is>
+      </c>
       <c r="J109" s="23" t="n"/>
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
+          <t>ネットワーク ウォッチャー パケットを使用して、キャプチャ ウィンドウが限られているにもかかわらずキャプチャします。</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6074,15 +6074,19 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I110" s="16" t="n"/>
+          <t>https://learn.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I110" s="16" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J110" s="23" t="n"/>
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6103,7 +6107,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模なアプローチはお勧めしません。</t>
+          <t>最新バージョンの NSG フロー ログで必要な詳細レベルが提供されているかどうかを評価します。</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6120,14 +6124,14 @@
       <c r="G111" s="22" t="n"/>
       <c r="H111" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6143,12 +6147,12 @@
       </c>
       <c r="B112" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
+          <t>ディープ パケット検査を必要とするシナリオには、パートナー ソリューションを使用します。</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6165,19 +6169,15 @@
       <c r="G112" s="22" t="n"/>
       <c r="H112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
-        </is>
-      </c>
-      <c r="I112" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+        </is>
+      </c>
+      <c r="I112" s="16" t="n"/>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6193,12 +6193,12 @@
       </c>
       <c r="B113" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>検査</t>
         </is>
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、Virtual WAN と通常の仮想ネットワークの両方で一般提供されました。</t>
+          <t>トラフィックをミラーリングするカスタム ソリューションを開発しないでください。このアプローチは小規模なシナリオでは許容できるかもしれませんが、複雑さとサポート性の問題が発生する可能性があるため、大規模なアプローチはお勧めしません。</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6215,19 +6215,15 @@
       <c r="G113" s="22" t="n"/>
       <c r="H113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I113" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I113" s="16" t="n"/>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6248,7 +6244,7 @@
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6265,19 +6261,19 @@
       <c r="G114" s="22" t="n"/>
       <c r="H114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I114" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6298,7 +6294,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
+          <t>Virtual WAN でファイアウォール マネージャーを使用して、仮想 WAN ハブ全体またはハブ仮想ネットワーク内の Azure ファイアウォールをデプロイおよび管理します。ファイアウォール マネージャーは、Virtual WAN と通常の仮想ネットワークの両方で一般提供されました。</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6315,19 +6311,19 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6348,7 +6344,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
+          <t>グローバル Azure ファイアウォール ポリシーを作成して、グローバル ネットワーク環境全体のセキュリティ体制を管理し、すべての Azure ファイアウォール インスタンスに割り当てます。Azure ロールベースのアクセス制御を介して増分ファイアウォール ポリシーをローカル セキュリティ チームに委任することで、特定のリージョンの要件を満たす詳細なポリシーを許可します。</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6365,19 +6361,19 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J116" s="23" t="n"/>
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6398,7 +6394,7 @@
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
+          <t>組織が送信接続を保護するためにそのようなソリューションを使用する場合は、Firewall Manager 内でサポートされているパートナー SaaS セキュリティ プロバイダーを構成します。</t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6415,19 +6411,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6448,7 +6444,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
+          <t>ランディング ゾーン仮想ネットワーク内で WAF を使用して、インターネットからの受信 HTTP/S トラフィックを保護します。</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6465,19 +6461,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6498,7 +6494,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6515,19 +6511,19 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6548,7 +6544,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6565,19 +6561,19 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J120" s="23" t="n"/>
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6593,12 +6589,12 @@
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
+          <t>受信 HTTP/S 接続にパートナー NVA が必要な場合は、ランディング ゾーン仮想ネットワーク内にデプロイし、保護してインターネットに公開しているアプリと共にデプロイします。</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6615,19 +6611,19 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://learn.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6643,12 +6639,12 @@
       </c>
       <c r="B122" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
+          <t>Azure DDoS ネットワークまたは IP 保護プランを使用して、仮想ネットワーク内のパブリック IP アドレス エンドポイントを保護します。</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6665,19 +6661,19 @@
       <c r="G122" s="22" t="n"/>
       <c r="H122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://learn.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I122" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6698,7 +6694,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
+          <t>PaaS サービスへのプライベート通信が必要な場合は、使用可能なさまざまなオプションを検討してください。</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6715,19 +6711,19 @@
       <c r="G123" s="22" t="n"/>
       <c r="H123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I123" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6748,7 +6744,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
+          <t>仮想ネットワークに挿入された Azure PaaS サービスは、引き続きパブリック IP アドレスを使用して管理プレーン操作を実行します。この通信が壊れていないことを確認してください</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6765,19 +6761,19 @@
       <c r="G124" s="22" t="n"/>
       <c r="H124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I124" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J124" s="23" t="n"/>
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6798,7 +6794,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
+          <t>共有 Azure PaaS サービスには、可能な場合はプライベート リンクを使用します。</t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6815,19 +6811,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6848,7 +6844,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
+          <t>オンプレミスから ExpressRoute プライベート ピアリング経由で Azure PaaS サービスにアクセスします。このメソッドは、パブリック インターネット経由の通過を回避します。</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6865,19 +6861,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6898,7 +6894,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
+          <t>Private Link が使用できないときに仮想ネットワーク サービス エンドポイントを使用する</t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6915,19 +6911,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6948,7 +6944,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
+          <t>既定では、すべてのサブネットで仮想ネットワーク サービス エンドポイントを有効にしないでください。</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6965,19 +6961,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6993,12 +6989,12 @@
       </c>
       <c r="B129" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
+          <t>NVA フィルター処理を使用しない限り、データ流出の懸念がある場合は仮想ネットワーク サービス エンドポイントを使用しないでください。</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -7015,19 +7011,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7043,12 +7039,12 @@
       </c>
       <c r="B130" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
+          <t>Azure から Azure リソースへの通信を有効にするために強制トンネリングを実装しないでください。</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
@@ -7065,19 +7061,19 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://learn.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7098,7 +7094,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
+          <t>サブネットの作成をランディングゾーンの所有者に委任します。</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7115,19 +7111,19 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7148,7 +7144,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
+          <t>NSG を使用して、サブネット間のトラフィックと、プラットフォーム全体の East/West トラフィック (ランディング ゾーン間のトラフィック) を保護します。</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7165,19 +7161,19 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7198,7 +7194,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
+          <t>アプリケーション チームは、サブネット レベルの NSG でアプリケーション セキュリティ グループを使用して、ランディング ゾーン内の多層 VM を保護する必要があります。</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7215,19 +7211,19 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7248,7 +7244,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用してランディング ゾーン内のトラフィックをマイクロセグメント化し、中央の NVA を使用してトラフィック フローをフィルター処理しないようにします。</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7265,19 +7261,19 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7298,7 +7294,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
+          <t>NSG フロー ログを有効にしてトラフィック分析にフィードし、内部および外部のトラフィック フローに関する分析情報を取得します。</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7315,19 +7311,19 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7343,12 +7339,12 @@
       </c>
       <c r="B136" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
+          <t>NSG を使用して、ランディング ゾーン間の接続を選択的に許可します。</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7365,19 +7361,19 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://learn.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7393,12 +7389,12 @@
       </c>
       <c r="B137" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
+          <t>Virtual WAN トポロジの場合、組織がランディング ゾーン間を流れるトラフィックのフィルター処理とログ記録機能を必要とする場合は、Azure Firewall を介してランディング ゾーン間でトラフィックをルーティングします。</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7415,14 +7411,19 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7443,7 +7444,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
+          <t>Azure ネットワーク管理を簡素化するために Virtual WAN を検討し、Virtual WAN ルーティング設計の一覧にシナリオが明示的に記述されていることを確認します。</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7460,14 +7461,19 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7488,7 +7494,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
+          <t>Azure リージョンごとに仮想 WAN ハブを使用して、共通のグローバル Azure 仮想 WAN を介して Azure リージョン間で複数のランディング ゾーンを接続します。</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7505,19 +7511,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7538,7 +7539,7 @@
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
+          <t>仮想ハブ ルーティング機能を使用して、VNet とブランチ間のトラフィックをさらにセグメント化します。</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
@@ -7555,19 +7556,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7588,7 +7584,7 @@
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
+          <t>ExpressRoute を使用して仮想 WAN ハブをオンプレミスのデータセンターに接続する</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7605,19 +7601,19 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://learn.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7638,7 +7634,7 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
+          <t>ブランチとリモート ロケーションをサイト間 VPN 経由で最も近い Virtual WAN ハブに接続するか、SD-WAN パートナー ソリューションを介して Virtual WAN へのブランチ接続を有効にします。</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
@@ -7655,14 +7651,19 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7683,7 +7684,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
+          <t>ポイント対サイト VPN 経由でユーザーを仮想 WAN ハブに接続します。</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7700,19 +7701,19 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://learn.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7733,7 +7734,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
+          <t>"Azure のトラフィックは Azure にとどまる" という原則に従って、Azure のリソース間の通信が Microsoft のバックボーン ネットワーク経由で行われるようにします。</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7750,14 +7751,14 @@
       <c r="G144" s="22" t="n"/>
       <c r="H144" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J144" s="23" t="n"/>
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7778,7 +7779,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
+          <t>送信インターネット トラフィックの保護とフィルター処理のために、Azure Firewall をデプロイする</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7795,14 +7796,19 @@
       <c r="G145" s="22" t="n"/>
       <c r="H145" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J145" s="23" t="n"/>
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7823,7 +7829,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
+          <t>VWAN にパートナー ネットワーク テクノロジと NVA をデプロイする場合は、パートナー ベンダーのガイダンスを使用して構成を確認し、構成が競合していないことを確認します。</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7840,14 +7846,14 @@
       <c r="G146" s="22" t="n"/>
       <c r="H146" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J146" s="23" t="n"/>
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7868,7 +7874,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
+          <t>Azure 仮想 WAN リソースと Azure ファイアウォール リソースが接続サブスクリプションに作成されていることを確認します。</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7885,14 +7891,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7903,23 +7909,23 @@
     <row r="148" ht="16.5" customHeight="1" s="13">
       <c r="A148" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B148" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
+          <t>ネットワーク アーキテクチャが Azure 仮想 WAN の制限内にあることを確認します。</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
       <c r="E148" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -7930,14 +7936,14 @@
       <c r="G148" s="22" t="n"/>
       <c r="H148" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J148" s="23" t="n"/>
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7948,17 +7954,17 @@
     <row r="149" ht="16.5" customHeight="1" s="13">
       <c r="A149" s="22" t="inlineStr">
         <is>
-          <t>オペレーションズ</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B149" s="22" t="inlineStr">
         <is>
-          <t>フロントドア</t>
+          <t>仮想 WAN</t>
         </is>
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
+          <t>仮想 WAN の Azure Monitor インサイトを使用して、仮想 WAN のエンド ツー エンドのトポロジ、状態、および主要なメトリックを監視します。</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7975,14 +7981,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+          <t>https://learn.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -8003,13 +8009,13 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
+          <t>Azure Front Door でマネージド TLS 証明書を使用します。運用コストと証明書の更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
       <c r="E150" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8020,14 +8026,14 @@
       <c r="G150" s="22" t="n"/>
       <c r="H150" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
         </is>
       </c>
       <c r="J150" s="23" t="n"/>
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8038,7 +8044,7 @@
     <row r="151" ht="16.5" customHeight="1" s="13">
       <c r="A151" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B151" s="22" t="inlineStr">
@@ -8048,13 +8054,13 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
+          <t>Azure Front Door でカスタマー マネージド TLS 証明書を使用する場合は、"最新" の証明書バージョンを使用します。証明書の手動更新による停止のリスクを軽減します。</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
       <c r="E151" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8065,14 +8071,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8083,7 +8089,7 @@
     <row r="152" ht="16.5" customHeight="1" s="13">
       <c r="A152" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>オペレーションズ</t>
         </is>
       </c>
       <c r="B152" s="22" t="inlineStr">
@@ -8093,7 +8099,7 @@
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
+          <t>Azure Front Door WAF 構成をコードとして定義します。コードを使用すると、新しいルール・セット・バージョンをより簡単に採用し、保護を強化することができます。</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
@@ -8110,14 +8116,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8138,7 +8144,7 @@
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
+          <t>Azure Front Door でエンド ツー エンドの TLS を使用します。クライアントからフロント ドアへの接続、およびフロント ドアから配信元への接続には TLS を使用します。</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8155,14 +8161,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8183,13 +8189,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
+          <t>Azure Front Door で HTTP から HTTPS へのリダイレクトを使用します。古いクライアントを HTTPS 要求に自動的にリダイレクトすることで、クライアントをサポートします。</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8200,14 +8206,14 @@
       <c r="G154" s="22" t="n"/>
       <c r="H154" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
         </is>
       </c>
       <c r="J154" s="23" t="n"/>
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8228,7 +8234,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
+          <t>Azure Front Door WAF を有効にします。さまざまな攻撃からアプリケーションを保護します。</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8245,14 +8251,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8273,7 +8279,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
+          <t>ワークロードに合わせて Azure Front Door WAF を調整します。誤検出を減らします。</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8290,14 +8296,14 @@
       <c r="G156" s="22" t="n"/>
       <c r="H156" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
         </is>
       </c>
       <c r="J156" s="23" t="n"/>
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8318,7 +8324,7 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
+          <t>Azure Front Door WAF で防止モードを使用します。防止モードでは、WAF が悪意のある要求を確実にブロックします。</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
@@ -8335,14 +8341,14 @@
       <c r="G157" s="22" t="n"/>
       <c r="H157" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
         </is>
       </c>
       <c r="J157" s="23" t="n"/>
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8363,13 +8369,13 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
+          <t>Azure Front Door WAF の既定の規則セットを有効にします。既定のルール セットは、一般的な攻撃を検出してブロックします。</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
       <c r="E158" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8380,14 +8386,14 @@
       <c r="G158" s="22" t="n"/>
       <c r="H158" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
         </is>
       </c>
       <c r="J158" s="23" t="n"/>
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8408,13 +8414,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
+          <t>Azure Front Door WAF ボット管理規則を有効にします。ボットルールは、良いボットと悪いボットを検出します。</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8425,14 +8431,14 @@
       <c r="G159" s="22" t="n"/>
       <c r="H159" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
         </is>
       </c>
       <c r="J159" s="23" t="n"/>
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8453,7 +8459,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
+          <t>最新の Azure Front Door WAF ルールセット バージョンを使用します。ルールセットの更新は、現在の脅威の状況を考慮して定期的に更新されます。</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8470,14 +8476,14 @@
       <c r="G160" s="22" t="n"/>
       <c r="H160" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
         </is>
       </c>
       <c r="J160" s="23" t="n"/>
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8498,13 +8504,13 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
+          <t>Azure Front Door WAF にレート制限を追加します。レート制限は、クライアントが誤ってまたは意図的に大量のトラフィックを短期間に送信するのをブロックします。</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
       <c r="E161" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8515,14 +8521,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8543,7 +8549,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
+          <t>Azure Front Door WAF のレート制限には高いしきい値を使用します。レート制限のしきい値を高くすると、正当なトラフィックのブロックを回避しながら、インフラストラクチャを圧倒する可能性のある非常に多数の要求に対する保護が提供されます。</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8560,14 +8566,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8583,18 +8589,18 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy の活用</t>
+          <t>Azure Front Door WAF を使用してトラフィックを地理的にフィルター処理します。予想されるリージョンからのトラフィックのみを許可し、他のリージョンからのトラフィックをブロックします。</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
       <c r="E163" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8605,14 +8611,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8628,12 +8634,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>フロントドア</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
+          <t>Azure フロント ドア WAF を使用してトラフィックを地理的フィルター処理するときに、不明な (ZZ) の場所を指定します。IP アドレスを地理的に一致させない場合に、正当な要求を誤ってブロックしないようにします。</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8650,14 +8656,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8678,13 +8684,13 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
+          <t>Azure Policy の活用</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
       <c r="E165" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -8695,14 +8701,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8723,7 +8729,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
+          <t>必要な Azure タグを特定し、追加ポリシー モードを使用して使用を強制します。</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8740,14 +8746,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8768,7 +8774,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
+          <t>規制とコンプライアンスの要件を Azure ポリシー定義と Azure ロールの割り当てにマップします。</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8785,14 +8791,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8813,13 +8819,13 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
+          <t>最上位のルート管理グループで Azure Policy 定義を確立して、継承されたスコープで割り当てられるようにする</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
       <c r="E168" s="22" t="inlineStr">
         <is>
-          <t>低い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -8830,14 +8836,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8858,7 +8864,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
+          <t>必要に応じて、最下位レベルで除外を使用して、適切な最上位レベルでポリシー割り当てを管理します。</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8875,14 +8881,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8903,13 +8909,13 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
+          <t>Azure Policy を使用して、サブスクリプション レベルや管理グループ レベルでリソース プロバイダーの登録を制御する</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
       <c r="E170" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>低い</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -8920,14 +8926,14 @@
       <c r="G170" s="22" t="n"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J170" s="23" t="n"/>
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8948,7 +8954,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
+          <t>可能な場合は組み込みのポリシーを使用して、運用オーバーヘッドを最小限に抑えます。</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8965,14 +8971,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8993,7 +8999,7 @@
       </c>
       <c r="C172" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
+          <t>組み込みのポリシー共同作成者ロールを特定のスコープに割り当てて、アプリケーション レベルのガバナンスを有効にします。</t>
         </is>
       </c>
       <c r="D172" s="22" t="n"/>
@@ -9010,14 +9016,14 @@
       <c r="G172" s="22" t="n"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
       <c r="L172" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M172" s="26" t="n"/>
@@ -9038,7 +9044,7 @@
       </c>
       <c r="C173" s="22" t="inlineStr">
         <is>
-          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
+          <t>ルート管理グループのスコープで行われる Azure Policy の割り当ての数を制限して、継承されたスコープでの除外による管理を回避します。</t>
         </is>
       </c>
       <c r="D173" s="22" t="n"/>
@@ -9055,14 +9061,14 @@
       <c r="G173" s="22" t="n"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
       <c r="L173" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M173" s="26" t="n"/>
@@ -9078,18 +9084,18 @@
       </c>
       <c r="B174" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C174" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
+          <t>Azure ポリシーを使用して、VM 拡張機能を介してソフトウェア構成を自動的にデプロイし、準拠したベースライン VM 構成を適用します。</t>
         </is>
       </c>
       <c r="D174" s="22" t="n"/>
       <c r="E174" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9100,14 +9106,14 @@
       <c r="G174" s="22" t="n"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
       <c r="L174" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M174" s="26" t="n"/>
@@ -9123,12 +9129,12 @@
       </c>
       <c r="B175" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>統治</t>
         </is>
       </c>
       <c r="C175" s="22" t="inlineStr">
         <is>
-          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
+          <t>Azure ポリシーを使用して VM のセキュリティ構成のドリフトを監視します。</t>
         </is>
       </c>
       <c r="D175" s="22" t="n"/>
@@ -9145,14 +9151,14 @@
       <c r="G175" s="22" t="n"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
       <c r="L175" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M175" s="26" t="n"/>
@@ -9173,13 +9179,13 @@
       </c>
       <c r="C176" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D176" s="22" t="n"/>
       <c r="E176" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9190,14 +9196,14 @@
       <c r="G176" s="22" t="n"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
       <c r="L176" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M176" s="26" t="n"/>
@@ -9218,7 +9224,7 @@
       </c>
       <c r="C177" s="22" t="inlineStr">
         <is>
-          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
+          <t>アプリケーションやリージョンごとに異なる Azure Key Vault を使用して、トランザクション スケールの制限を回避し、シークレットへのアクセスを制限します。</t>
         </is>
       </c>
       <c r="D177" s="22" t="n"/>
@@ -9235,14 +9241,14 @@
       <c r="G177" s="22" t="n"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
       <c r="L177" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M177" s="26" t="n"/>
@@ -9263,7 +9269,7 @@
       </c>
       <c r="C178" s="22" t="inlineStr">
         <is>
-          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D178" s="22" t="n"/>
@@ -9280,14 +9286,14 @@
       <c r="G178" s="22" t="n"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
       <c r="L178" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M178" s="26" t="n"/>
@@ -9308,7 +9314,7 @@
       </c>
       <c r="C179" s="22" t="inlineStr">
         <is>
-          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
+          <t>キー、シークレット、証明書を完全に削除する承認を特殊なカスタム Azure Active Directory (Azure AD) ロールに制限することで、最小特権モデルに従います。</t>
         </is>
       </c>
       <c r="D179" s="22" t="n"/>
@@ -9325,14 +9331,14 @@
       <c r="G179" s="22" t="n"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
       <c r="L179" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M179" s="26" t="n"/>
@@ -9353,7 +9359,7 @@
       </c>
       <c r="C180" s="22" t="inlineStr">
         <is>
-          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
+          <t>パブリック認証局を使用して証明書の管理と更新プロセスを自動化し、管理を容易にします。</t>
         </is>
       </c>
       <c r="D180" s="22" t="n"/>
@@ -9370,14 +9376,14 @@
       <c r="G180" s="22" t="n"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
       <c r="L180" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M180" s="26" t="n"/>
@@ -9398,7 +9404,7 @@
       </c>
       <c r="C181" s="22" t="inlineStr">
         <is>
-          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
+          <t>キーと証明書のローテーションの自動化されたプロセスを確立します。</t>
         </is>
       </c>
       <c r="D181" s="22" t="n"/>
@@ -9415,14 +9421,14 @@
       <c r="G181" s="22" t="n"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
       <c r="L181" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M181" s="26" t="n"/>
@@ -9443,7 +9449,7 @@
       </c>
       <c r="C182" s="22" t="inlineStr">
         <is>
-          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
+          <t>コンテナーでファイアウォールと仮想ネットワーク サービス エンドポイントまたはプライベート エンドポイントを有効にして、キー コンテナーへのアクセスを制御します。</t>
         </is>
       </c>
       <c r="D182" s="22" t="n"/>
@@ -9460,14 +9466,14 @@
       <c r="G182" s="22" t="n"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
       <c r="L182" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M182" s="26" t="n"/>
@@ -9488,7 +9494,7 @@
       </c>
       <c r="C183" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
+          <t>プラットフォーム中央の Azure Monitor Log Analytics ワークスペースを使用して、Key Vault の各インスタンス内のキー、証明書、シークレットの使用状況を監査します。</t>
         </is>
       </c>
       <c r="D183" s="22" t="n"/>
@@ -9505,14 +9511,14 @@
       <c r="G183" s="22" t="n"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
       <c r="L183" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M183" s="26" t="n"/>
@@ -9533,7 +9539,7 @@
       </c>
       <c r="C184" s="22" t="inlineStr">
         <is>
-          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
+          <t>Key Vault のインスタンス化と特権アクセスを委任し、Azure Policy を使用して一貫した準拠構成を適用します。</t>
         </is>
       </c>
       <c r="D184" s="22" t="n"/>
@@ -9550,14 +9556,14 @@
       <c r="G184" s="22" t="n"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
       <c r="L184" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M184" s="26" t="n"/>
@@ -9578,7 +9584,7 @@
       </c>
       <c r="C185" s="22" t="inlineStr">
         <is>
-          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D185" s="22" t="n"/>
@@ -9595,14 +9601,14 @@
       <c r="G185" s="22" t="n"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://learn.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
       <c r="L185" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M185" s="26" t="n"/>
@@ -9618,12 +9624,12 @@
       </c>
       <c r="B186" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C186" s="22" t="inlineStr">
         <is>
-          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D186" s="22" t="n"/>
@@ -9640,14 +9646,14 @@
       <c r="G186" s="22" t="n"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
       <c r="L186" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M186" s="26" t="n"/>
@@ -9663,12 +9669,12 @@
       </c>
       <c r="B187" s="22" t="inlineStr">
         <is>
-          <t>安全</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C187" s="22" t="inlineStr">
         <is>
-          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
+          <t>独自のキーを持ち込む場合、これは考慮されるすべてのサービスでサポートされているとは限りません。不整合によって望ましい結果が妨げられないように、関連する軽減策を実装します。待機時間を最小限に抑える適切なリージョン ペアとディザスター リカバリー リージョンを選択します。</t>
         </is>
       </c>
       <c r="D187" s="22" t="n"/>
@@ -9685,14 +9691,14 @@
       <c r="G187" s="22" t="n"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://learn.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
       <c r="L187" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M187" s="26" t="n"/>
@@ -9713,7 +9719,7 @@
       </c>
       <c r="C188" s="22" t="inlineStr">
         <is>
-          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
+          <t>Azure AD のレポート機能を使用して、アクセス制御監査レポートを生成します。</t>
         </is>
       </c>
       <c r="D188" s="22" t="n"/>
@@ -9730,14 +9736,14 @@
       <c r="G188" s="22" t="n"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
       <c r="L188" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M188" s="26" t="n"/>
@@ -9758,7 +9764,7 @@
       </c>
       <c r="C189" s="22" t="inlineStr">
         <is>
-          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
+          <t>Azure アクティビティ ログを Azure Monitor ログにエクスポートして、長期的なデータ保持を行います。必要に応じて、2 年を超える長期ストレージ用に Azure Storage にエクスポートします。</t>
         </is>
       </c>
       <c r="D189" s="22" t="n"/>
@@ -9775,14 +9781,14 @@
       <c r="G189" s="22" t="n"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
       <c r="L189" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M189" s="26" t="n"/>
@@ -9803,7 +9809,7 @@
       </c>
       <c r="C190" s="22" t="inlineStr">
         <is>
-          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
+          <t>すべてのサブスクリプションに対して Defender for Cloud Standard を有効にします。</t>
         </is>
       </c>
       <c r="D190" s="22" t="n"/>
@@ -9820,14 +9826,14 @@
       <c r="G190" s="22" t="n"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
       <c r="L190" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M190" s="26" t="n"/>
@@ -9848,7 +9854,7 @@
       </c>
       <c r="C191" s="22" t="inlineStr">
         <is>
-          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
+          <t>Azure Monitor ログと Defender for Cloud を使用して、基本オペレーティング システムの修正プログラム適用ドリフトを監視します。</t>
         </is>
       </c>
       <c r="D191" s="22" t="n"/>
@@ -9865,14 +9871,14 @@
       <c r="G191" s="22" t="n"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
       <c r="L191" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M191" s="26" t="n"/>
@@ -9893,7 +9899,7 @@
       </c>
       <c r="C192" s="22" t="inlineStr">
         <is>
-          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
+          <t>既定のリソース構成を一元化された Azure Monitor ログ分析ワークスペースに接続します。</t>
         </is>
       </c>
       <c r="D192" s="22" t="n"/>
@@ -9910,14 +9916,14 @@
       <c r="G192" s="22" t="n"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
       <c r="L192" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M192" s="26" t="n"/>
@@ -9938,7 +9944,7 @@
       </c>
       <c r="C193" s="22" t="inlineStr">
         <is>
-          <t>新しい Azure サービスの実装方法を計画する</t>
+          <t>運用環境へのアクセスを許可する前に、Azure サービスのインシデント対応計画を決定します。</t>
         </is>
       </c>
       <c r="D193" s="22" t="n"/>
@@ -9955,14 +9961,14 @@
       <c r="G193" s="22" t="n"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
       <c r="L193" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M193" s="26" t="n"/>
@@ -9983,7 +9989,7 @@
       </c>
       <c r="C194" s="22" t="inlineStr">
         <is>
-          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+          <t>必要に応じて、Azure プラットフォームにアクセスするためのゼロトラスト アプローチを実装します。</t>
         </is>
       </c>
       <c r="D194" s="22" t="n"/>
@@ -10000,14 +10006,14 @@
       <c r="G194" s="22" t="n"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
       <c r="L194" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M194" s="26" t="n"/>
@@ -10018,41 +10024,41 @@
     <row r="195" ht="16.5" customHeight="1" s="13">
       <c r="A195" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B195" s="22" t="inlineStr">
         <is>
-          <t>Front Door</t>
+          <t>安全</t>
         </is>
       </c>
       <c r="C195" s="22" t="inlineStr">
         <is>
-          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+          <t>新しい Azure サービスの実装方法を計画する</t>
         </is>
       </c>
       <c r="D195" s="22" t="n"/>
       <c r="E195" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Not verified</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G195" s="22" t="n"/>
       <c r="H195" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
         </is>
       </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
       <c r="L195" s="26" t="inlineStr">
         <is>
-          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
         </is>
       </c>
       <c r="M195" s="26" t="n"/>
@@ -10061,15 +10067,45 @@
       <c r="P195" s="26" t="n"/>
     </row>
     <row r="196" ht="16.5" customHeight="1" s="13">
-      <c r="A196" s="22" t="n"/>
-      <c r="B196" s="22" t="n"/>
-      <c r="C196" s="22" t="n"/>
+      <c r="A196" s="22" t="inlineStr">
+        <is>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+        </is>
+      </c>
+      <c r="B196" s="22" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C196" s="22" t="inlineStr">
+        <is>
+          <t>Azure サービスのサービス要求を満たす方法を計画する</t>
+        </is>
+      </c>
       <c r="D196" s="22" t="n"/>
-      <c r="E196" s="22" t="n"/>
+      <c r="E196" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>未確認</t>
+        </is>
+      </c>
       <c r="G196" s="22" t="n"/>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J196" s="23" t="n"/>
       <c r="K196" s="23" t="n"/>
-      <c r="L196" s="26" t="n"/>
+      <c r="L196" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M196" s="26" t="n"/>
       <c r="N196" s="26" t="n"/>
       <c r="O196" s="26" t="n"/>
@@ -11789,7 +11825,7 @@
     <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F195" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F197" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/lz_checklist.ja.xlsx
+++ b/spreadsheet/lz_checklist.ja.xlsx
@@ -4298,11 +4298,7 @@
           <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
-      <c r="B74" s="22" t="inlineStr">
-        <is>
-          <t>フロントドア</t>
-        </is>
-      </c>
+      <c r="B74" s="22" t="n"/>
       <c r="C74" s="22" t="inlineStr">
         <is>
           <t>Azure Traffic Manager と Azure Front Door の組み合わせは避けてください。</t>
